--- a/Code/Results/Cases/Case_3_37/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_37/res_line/pl_mw.xlsx
@@ -412,28 +412,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.438309787209448</v>
+        <v>2.438309787209391</v>
       </c>
       <c r="C2">
-        <v>0.5883397054814168</v>
+        <v>0.5883397054813884</v>
       </c>
       <c r="D2">
-        <v>0.007206607109297991</v>
+        <v>0.007206607109189633</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.148575232578551</v>
+        <v>2.148575232578565</v>
       </c>
       <c r="G2">
-        <v>1.578398719149547</v>
+        <v>1.578398719149533</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2164604672816353</v>
+        <v>0.2164604672816495</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1.10753280059479</v>
+        <v>1.107532800594804</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.102779799902976</v>
+        <v>2.102779799903089</v>
       </c>
       <c r="C3">
         <v>0.5110527177866686</v>
       </c>
       <c r="D3">
-        <v>0.007075130645501915</v>
+        <v>0.007075130645420202</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.910698619415086</v>
+        <v>1.910698619415115</v>
       </c>
       <c r="G3">
         <v>1.408211476530099</v>
@@ -471,7 +471,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.1893799534195679</v>
+        <v>0.1893799534195715</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.9529829538152867</v>
+        <v>0.952982953815301</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,28 +488,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.899453252209298</v>
+        <v>1.899453252209355</v>
       </c>
       <c r="C4">
-        <v>0.4641075071664034</v>
+        <v>0.4641075071665171</v>
       </c>
       <c r="D4">
-        <v>0.006987429158831659</v>
+        <v>0.006987429158607839</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.769568014879283</v>
+        <v>1.769568014879312</v>
       </c>
       <c r="G4">
-        <v>1.307428236374236</v>
+        <v>1.307428236374264</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.1733337638468093</v>
+        <v>0.1733337638468235</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.817161421903364</v>
+        <v>1.817161421903336</v>
       </c>
       <c r="C5">
-        <v>0.4450789282007008</v>
+        <v>0.4450789282008429</v>
       </c>
       <c r="D5">
-        <v>0.006950010863025824</v>
+        <v>0.006950010863050693</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.713155192344772</v>
+        <v>1.713155192344814</v>
       </c>
       <c r="G5">
         <v>1.267187401901211</v>
@@ -547,7 +547,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.1669223704869864</v>
+        <v>0.1669223704870006</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -564,13 +564,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.803528018881025</v>
+        <v>1.803528018881082</v>
       </c>
       <c r="C6">
-        <v>0.4419246906419687</v>
+        <v>0.4419246906418266</v>
       </c>
       <c r="D6">
-        <v>0.006943698353877537</v>
+        <v>0.006943698354001882</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -585,7 +585,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.1658649573251374</v>
+        <v>0.1658649573251587</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.8160774221860763</v>
+        <v>0.8160774221860976</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,13 +602,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.898341286011259</v>
+        <v>1.898341286011316</v>
       </c>
       <c r="C7">
         <v>0.4638505008751679</v>
       </c>
       <c r="D7">
-        <v>0.006986931222636272</v>
+        <v>0.006986931222648707</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -617,13 +617,13 @@
         <v>1.768802937629019</v>
       </c>
       <c r="G7">
-        <v>1.306882308442042</v>
+        <v>1.306882308442056</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.1732468043760669</v>
+        <v>0.1732468043760846</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -643,19 +643,19 @@
         <v>2.321990441190792</v>
       </c>
       <c r="C8">
-        <v>0.5615689046344983</v>
+        <v>0.5615689046342993</v>
       </c>
       <c r="D8">
-        <v>0.007162766224542594</v>
+        <v>0.007162766224752204</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.065444654217458</v>
+        <v>2.065444654217487</v>
       </c>
       <c r="G8">
-        <v>1.518881797232339</v>
+        <v>1.518881797232353</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1.053833889083784</v>
+        <v>1.053833889083791</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,13 +678,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.179751983672418</v>
+        <v>3.179751983672702</v>
       </c>
       <c r="C9">
-        <v>0.7585680486105559</v>
+        <v>0.7585680486107549</v>
       </c>
       <c r="D9">
-        <v>0.00744893200931962</v>
+        <v>0.007448932009427978</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -693,13 +693,13 @@
         <v>2.693303183776891</v>
       </c>
       <c r="G9">
-        <v>1.96933422820203</v>
+        <v>1.969334228202058</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.2787260794408155</v>
+        <v>0.2787260794408013</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.452659857457405</v>
+        <v>1.452659857457391</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,13 +716,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.835375443966484</v>
+        <v>3.835375443966313</v>
       </c>
       <c r="C10">
-        <v>0.9087130027987484</v>
+        <v>0.9087130027984642</v>
       </c>
       <c r="D10">
-        <v>0.007618873983627594</v>
+        <v>0.007618873983748387</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.3363500107162452</v>
+        <v>0.3363500107162167</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.761718077482755</v>
+        <v>1.76171807748274</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,25 +757,25 @@
         <v>4.14152180589133</v>
       </c>
       <c r="C11">
-        <v>0.9787600465666628</v>
+        <v>0.9787600465666912</v>
       </c>
       <c r="D11">
-        <v>0.00768642604035108</v>
+        <v>0.00768642604048253</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.433102836996909</v>
+        <v>3.433102836996881</v>
       </c>
       <c r="G11">
-        <v>2.50236956176397</v>
+        <v>2.502369561763942</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.3640434891286759</v>
+        <v>0.3640434891286688</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.90723653178469</v>
+        <v>1.907236531784676</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.25881937926107</v>
+        <v>4.258819379261013</v>
       </c>
       <c r="C12">
-        <v>1.005592123493187</v>
+        <v>1.00559212349296</v>
       </c>
       <c r="D12">
-        <v>0.00771051624982988</v>
+        <v>0.007710516249847643</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.525625792125425</v>
+        <v>3.525625792125368</v>
       </c>
       <c r="G12">
         <v>2.569176000948374</v>
@@ -813,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.3747842499378393</v>
+        <v>0.3747842499378464</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.963191307166682</v>
+        <v>1.963191307166667</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,13 +830,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.233492419611991</v>
+        <v>4.233492419612276</v>
       </c>
       <c r="C13">
-        <v>0.999798727586608</v>
+        <v>0.9997987275863807</v>
       </c>
       <c r="D13">
-        <v>0.007705395711088414</v>
+        <v>0.007705395710994267</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -845,13 +845,13 @@
         <v>3.505607968940325</v>
       </c>
       <c r="G13">
-        <v>2.554719617135703</v>
+        <v>2.554719617135689</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.3724590180683265</v>
+        <v>0.3724590180682625</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.951100137012503</v>
+        <v>1.951100137012517</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,13 +868,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.151143113698424</v>
+        <v>4.151143113698311</v>
       </c>
       <c r="C14">
-        <v>0.9809610381639402</v>
+        <v>0.9809610381641676</v>
       </c>
       <c r="D14">
-        <v>0.007688438339849668</v>
+        <v>0.007688438339965131</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -883,13 +883,13 @@
         <v>3.440674066382826</v>
       </c>
       <c r="G14">
-        <v>2.507835289463415</v>
+        <v>2.507835289463387</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.3649217911954068</v>
+        <v>0.3649217911953997</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.911822035444729</v>
+        <v>1.911822035444715</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,13 +906,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.100887193612323</v>
+        <v>4.100887193612436</v>
       </c>
       <c r="C15">
-        <v>0.9694641674995523</v>
+        <v>0.9694641674996376</v>
       </c>
       <c r="D15">
-        <v>0.007677854714726706</v>
+        <v>0.007677854714636112</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>3.401162130428503</v>
       </c>
       <c r="G15">
-        <v>2.479313504603681</v>
+        <v>2.479313504603638</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.3603394134026843</v>
+        <v>0.3603394134026416</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.887878359949667</v>
+        <v>1.887878359949696</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,10 +944,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.815545966600894</v>
+        <v>3.815545966600723</v>
       </c>
       <c r="C16">
-        <v>0.9041749602897653</v>
+        <v>0.9041749602894811</v>
       </c>
       <c r="D16">
         <v>0.007614255606689824</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.178516766446165</v>
+        <v>3.178516766446194</v>
       </c>
       <c r="G16">
         <v>2.318699854114683</v>
@@ -985,16 +985,16 @@
         <v>3.642675342723237</v>
       </c>
       <c r="C17">
-        <v>0.8646062402070811</v>
+        <v>0.8646062402066264</v>
       </c>
       <c r="D17">
-        <v>0.007572679988312458</v>
+        <v>0.007572679987976727</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.045065015708104</v>
+        <v>3.045065015708133</v>
       </c>
       <c r="G17">
         <v>2.222517168702282</v>
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.3191728623240735</v>
+        <v>0.3191728623241019</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.670513316074292</v>
+        <v>1.670513316074263</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,7 +1020,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.543972658524922</v>
+        <v>3.543972658525036</v>
       </c>
       <c r="C18">
         <v>0.842007833390312</v>
@@ -1032,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.969368680492209</v>
+        <v>2.969368680492181</v>
       </c>
       <c r="G18">
         <v>2.167991224426672</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.3104514265196485</v>
+        <v>0.3104514265196201</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.623914955628067</v>
+        <v>1.623914955628052</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,28 +1058,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.510672165627284</v>
+        <v>3.510672165627398</v>
       </c>
       <c r="C19">
-        <v>0.8343823996177093</v>
+        <v>0.8343823996179367</v>
       </c>
       <c r="D19">
-        <v>0.007539294176535094</v>
+        <v>0.007539294176506672</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.943913427728688</v>
+        <v>2.94391342772866</v>
       </c>
       <c r="G19">
-        <v>2.149660305342124</v>
+        <v>2.149660305342152</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.3075207984064647</v>
+        <v>0.3075207984064505</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>3.661000815779346</v>
       </c>
       <c r="C20">
-        <v>0.8688014125306722</v>
+        <v>0.8688014125308996</v>
       </c>
       <c r="D20">
-        <v>0.007577200875369172</v>
+        <v>0.007577200875243051</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.05915935979877</v>
+        <v>3.059159359798798</v>
       </c>
       <c r="G20">
         <v>2.232672160151026</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.3207978638860709</v>
+        <v>0.320797863886078</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.67917370874008</v>
+        <v>1.679173708740066</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,13 +1134,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.175292000359377</v>
+        <v>4.175292000359548</v>
       </c>
       <c r="C21">
-        <v>0.9864853095282058</v>
+        <v>0.9864853095284047</v>
       </c>
       <c r="D21">
-        <v>0.007693460294474264</v>
+        <v>0.007693460294731835</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1149,13 +1149,13 @@
         <v>3.459691558671636</v>
       </c>
       <c r="G21">
-        <v>2.521565029482758</v>
+        <v>2.52156502948273</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.3671284072157164</v>
+        <v>0.3671284072156951</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.923334653015303</v>
+        <v>1.923334653015317</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,13 +1172,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.51951012609004</v>
+        <v>4.519510126089983</v>
       </c>
       <c r="C22">
-        <v>1.065219311811063</v>
+        <v>1.065219311811035</v>
       </c>
       <c r="D22">
-        <v>0.007760712179132767</v>
+        <v>0.007760712179337048</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.3989119553861897</v>
+        <v>0.3989119553862182</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>2.087945897693487</v>
+        <v>2.087945897693501</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,28 +1210,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.33496769667164</v>
+        <v>4.334967696671754</v>
       </c>
       <c r="C23">
-        <v>1.023010058183189</v>
+        <v>1.023010058182933</v>
       </c>
       <c r="D23">
-        <v>0.007725647456524598</v>
+        <v>0.007725647456670259</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.585943969550158</v>
+        <v>3.585943969550129</v>
       </c>
       <c r="G23">
-        <v>2.612744424997601</v>
+        <v>2.612744424997572</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.3817954554443901</v>
+        <v>0.3817954554443688</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.999575857121783</v>
+        <v>1.999575857121798</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.652713759159951</v>
+        <v>3.652713759160008</v>
       </c>
       <c r="C24">
         <v>0.8669043114495878</v>
       </c>
       <c r="D24">
-        <v>0.007575159852425628</v>
+        <v>0.007575159852542868</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.052784129621472</v>
+        <v>3.052784129621529</v>
       </c>
       <c r="G24">
         <v>2.22807870359793</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.320062791010443</v>
+        <v>0.3200627910104572</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.675257007754837</v>
+        <v>1.675257007754851</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,13 +1286,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.9439578543209</v>
+        <v>2.943957854321013</v>
       </c>
       <c r="C25">
-        <v>0.7044960829173874</v>
+        <v>0.7044960829175864</v>
       </c>
       <c r="D25">
-        <v>0.007378261113311524</v>
+        <v>0.007378261113192508</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1301,7 +1301,7 @@
         <v>2.517442151605621</v>
       </c>
       <c r="G25">
-        <v>1.842960238508937</v>
+        <v>1.842960238508951</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.342384072932759</v>
+        <v>1.342384072932774</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_37/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_37/res_line/pl_mw.xlsx
@@ -412,28 +412,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.438309787209391</v>
+        <v>2.438309787209448</v>
       </c>
       <c r="C2">
-        <v>0.5883397054813884</v>
+        <v>0.5883397054814168</v>
       </c>
       <c r="D2">
-        <v>0.007206607109189633</v>
+        <v>0.007206607109297991</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.148575232578565</v>
+        <v>2.148575232578551</v>
       </c>
       <c r="G2">
-        <v>1.578398719149533</v>
+        <v>1.578398719149547</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2164604672816495</v>
+        <v>0.2164604672816353</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1.107532800594804</v>
+        <v>1.10753280059479</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.102779799903089</v>
+        <v>2.102779799902976</v>
       </c>
       <c r="C3">
         <v>0.5110527177866686</v>
       </c>
       <c r="D3">
-        <v>0.007075130645420202</v>
+        <v>0.007075130645501915</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.910698619415115</v>
+        <v>1.910698619415086</v>
       </c>
       <c r="G3">
         <v>1.408211476530099</v>
@@ -471,7 +471,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.1893799534195715</v>
+        <v>0.1893799534195679</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.952982953815301</v>
+        <v>0.9529829538152867</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,28 +488,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.899453252209355</v>
+        <v>1.899453252209298</v>
       </c>
       <c r="C4">
-        <v>0.4641075071665171</v>
+        <v>0.4641075071664034</v>
       </c>
       <c r="D4">
-        <v>0.006987429158607839</v>
+        <v>0.006987429158831659</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.769568014879312</v>
+        <v>1.769568014879283</v>
       </c>
       <c r="G4">
-        <v>1.307428236374264</v>
+        <v>1.307428236374236</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.1733337638468235</v>
+        <v>0.1733337638468093</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.817161421903336</v>
+        <v>1.817161421903364</v>
       </c>
       <c r="C5">
-        <v>0.4450789282008429</v>
+        <v>0.4450789282007008</v>
       </c>
       <c r="D5">
-        <v>0.006950010863050693</v>
+        <v>0.006950010863025824</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.713155192344814</v>
+        <v>1.713155192344772</v>
       </c>
       <c r="G5">
         <v>1.267187401901211</v>
@@ -547,7 +547,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.1669223704870006</v>
+        <v>0.1669223704869864</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -564,13 +564,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.803528018881082</v>
+        <v>1.803528018881025</v>
       </c>
       <c r="C6">
-        <v>0.4419246906418266</v>
+        <v>0.4419246906419687</v>
       </c>
       <c r="D6">
-        <v>0.006943698354001882</v>
+        <v>0.006943698353877537</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -585,7 +585,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.1658649573251587</v>
+        <v>0.1658649573251374</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.8160774221860976</v>
+        <v>0.8160774221860763</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,13 +602,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.898341286011316</v>
+        <v>1.898341286011259</v>
       </c>
       <c r="C7">
         <v>0.4638505008751679</v>
       </c>
       <c r="D7">
-        <v>0.006986931222648707</v>
+        <v>0.006986931222636272</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -617,13 +617,13 @@
         <v>1.768802937629019</v>
       </c>
       <c r="G7">
-        <v>1.306882308442056</v>
+        <v>1.306882308442042</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.1732468043760846</v>
+        <v>0.1732468043760669</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -643,19 +643,19 @@
         <v>2.321990441190792</v>
       </c>
       <c r="C8">
-        <v>0.5615689046342993</v>
+        <v>0.5615689046344983</v>
       </c>
       <c r="D8">
-        <v>0.007162766224752204</v>
+        <v>0.007162766224542594</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.065444654217487</v>
+        <v>2.065444654217458</v>
       </c>
       <c r="G8">
-        <v>1.518881797232353</v>
+        <v>1.518881797232339</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1.053833889083791</v>
+        <v>1.053833889083784</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,13 +678,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.179751983672702</v>
+        <v>3.179751983672418</v>
       </c>
       <c r="C9">
-        <v>0.7585680486107549</v>
+        <v>0.7585680486105559</v>
       </c>
       <c r="D9">
-        <v>0.007448932009427978</v>
+        <v>0.00744893200931962</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -693,13 +693,13 @@
         <v>2.693303183776891</v>
       </c>
       <c r="G9">
-        <v>1.969334228202058</v>
+        <v>1.96933422820203</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.2787260794408013</v>
+        <v>0.2787260794408155</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.452659857457391</v>
+        <v>1.452659857457405</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,13 +716,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.835375443966313</v>
+        <v>3.835375443966484</v>
       </c>
       <c r="C10">
-        <v>0.9087130027984642</v>
+        <v>0.9087130027987484</v>
       </c>
       <c r="D10">
-        <v>0.007618873983748387</v>
+        <v>0.007618873983627594</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.3363500107162167</v>
+        <v>0.3363500107162452</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.76171807748274</v>
+        <v>1.761718077482755</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,25 +757,25 @@
         <v>4.14152180589133</v>
       </c>
       <c r="C11">
-        <v>0.9787600465666912</v>
+        <v>0.9787600465666628</v>
       </c>
       <c r="D11">
-        <v>0.00768642604048253</v>
+        <v>0.00768642604035108</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.433102836996881</v>
+        <v>3.433102836996909</v>
       </c>
       <c r="G11">
-        <v>2.502369561763942</v>
+        <v>2.50236956176397</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.3640434891286688</v>
+        <v>0.3640434891286759</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.907236531784676</v>
+        <v>1.90723653178469</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.258819379261013</v>
+        <v>4.25881937926107</v>
       </c>
       <c r="C12">
-        <v>1.00559212349296</v>
+        <v>1.005592123493187</v>
       </c>
       <c r="D12">
-        <v>0.007710516249847643</v>
+        <v>0.00771051624982988</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.525625792125368</v>
+        <v>3.525625792125425</v>
       </c>
       <c r="G12">
         <v>2.569176000948374</v>
@@ -813,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.3747842499378464</v>
+        <v>0.3747842499378393</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.963191307166667</v>
+        <v>1.963191307166682</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,13 +830,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.233492419612276</v>
+        <v>4.233492419611991</v>
       </c>
       <c r="C13">
-        <v>0.9997987275863807</v>
+        <v>0.999798727586608</v>
       </c>
       <c r="D13">
-        <v>0.007705395710994267</v>
+        <v>0.007705395711088414</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -845,13 +845,13 @@
         <v>3.505607968940325</v>
       </c>
       <c r="G13">
-        <v>2.554719617135689</v>
+        <v>2.554719617135703</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.3724590180682625</v>
+        <v>0.3724590180683265</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.951100137012517</v>
+        <v>1.951100137012503</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,13 +868,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.151143113698311</v>
+        <v>4.151143113698424</v>
       </c>
       <c r="C14">
-        <v>0.9809610381641676</v>
+        <v>0.9809610381639402</v>
       </c>
       <c r="D14">
-        <v>0.007688438339965131</v>
+        <v>0.007688438339849668</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -883,13 +883,13 @@
         <v>3.440674066382826</v>
       </c>
       <c r="G14">
-        <v>2.507835289463387</v>
+        <v>2.507835289463415</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.3649217911953997</v>
+        <v>0.3649217911954068</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.911822035444715</v>
+        <v>1.911822035444729</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,13 +906,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.100887193612436</v>
+        <v>4.100887193612323</v>
       </c>
       <c r="C15">
-        <v>0.9694641674996376</v>
+        <v>0.9694641674995523</v>
       </c>
       <c r="D15">
-        <v>0.007677854714636112</v>
+        <v>0.007677854714726706</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>3.401162130428503</v>
       </c>
       <c r="G15">
-        <v>2.479313504603638</v>
+        <v>2.479313504603681</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.3603394134026416</v>
+        <v>0.3603394134026843</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.887878359949696</v>
+        <v>1.887878359949667</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,10 +944,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.815545966600723</v>
+        <v>3.815545966600894</v>
       </c>
       <c r="C16">
-        <v>0.9041749602894811</v>
+        <v>0.9041749602897653</v>
       </c>
       <c r="D16">
         <v>0.007614255606689824</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.178516766446194</v>
+        <v>3.178516766446165</v>
       </c>
       <c r="G16">
         <v>2.318699854114683</v>
@@ -985,16 +985,16 @@
         <v>3.642675342723237</v>
       </c>
       <c r="C17">
-        <v>0.8646062402066264</v>
+        <v>0.8646062402070811</v>
       </c>
       <c r="D17">
-        <v>0.007572679987976727</v>
+        <v>0.007572679988312458</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.045065015708133</v>
+        <v>3.045065015708104</v>
       </c>
       <c r="G17">
         <v>2.222517168702282</v>
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.3191728623241019</v>
+        <v>0.3191728623240735</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.670513316074263</v>
+        <v>1.670513316074292</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,7 +1020,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.543972658525036</v>
+        <v>3.543972658524922</v>
       </c>
       <c r="C18">
         <v>0.842007833390312</v>
@@ -1032,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.969368680492181</v>
+        <v>2.969368680492209</v>
       </c>
       <c r="G18">
         <v>2.167991224426672</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.3104514265196201</v>
+        <v>0.3104514265196485</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.623914955628052</v>
+        <v>1.623914955628067</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,28 +1058,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.510672165627398</v>
+        <v>3.510672165627284</v>
       </c>
       <c r="C19">
-        <v>0.8343823996179367</v>
+        <v>0.8343823996177093</v>
       </c>
       <c r="D19">
-        <v>0.007539294176506672</v>
+        <v>0.007539294176535094</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.94391342772866</v>
+        <v>2.943913427728688</v>
       </c>
       <c r="G19">
-        <v>2.149660305342152</v>
+        <v>2.149660305342124</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.3075207984064505</v>
+        <v>0.3075207984064647</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>3.661000815779346</v>
       </c>
       <c r="C20">
-        <v>0.8688014125308996</v>
+        <v>0.8688014125306722</v>
       </c>
       <c r="D20">
-        <v>0.007577200875243051</v>
+        <v>0.007577200875369172</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.059159359798798</v>
+        <v>3.05915935979877</v>
       </c>
       <c r="G20">
         <v>2.232672160151026</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.320797863886078</v>
+        <v>0.3207978638860709</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.679173708740066</v>
+        <v>1.67917370874008</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,13 +1134,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.175292000359548</v>
+        <v>4.175292000359377</v>
       </c>
       <c r="C21">
-        <v>0.9864853095284047</v>
+        <v>0.9864853095282058</v>
       </c>
       <c r="D21">
-        <v>0.007693460294731835</v>
+        <v>0.007693460294474264</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1149,13 +1149,13 @@
         <v>3.459691558671636</v>
       </c>
       <c r="G21">
-        <v>2.52156502948273</v>
+        <v>2.521565029482758</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.3671284072156951</v>
+        <v>0.3671284072157164</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.923334653015317</v>
+        <v>1.923334653015303</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,13 +1172,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.519510126089983</v>
+        <v>4.51951012609004</v>
       </c>
       <c r="C22">
-        <v>1.065219311811035</v>
+        <v>1.065219311811063</v>
       </c>
       <c r="D22">
-        <v>0.007760712179337048</v>
+        <v>0.007760712179132767</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.3989119553862182</v>
+        <v>0.3989119553861897</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>2.087945897693501</v>
+        <v>2.087945897693487</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,28 +1210,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.334967696671754</v>
+        <v>4.33496769667164</v>
       </c>
       <c r="C23">
-        <v>1.023010058182933</v>
+        <v>1.023010058183189</v>
       </c>
       <c r="D23">
-        <v>0.007725647456670259</v>
+        <v>0.007725647456524598</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.585943969550129</v>
+        <v>3.585943969550158</v>
       </c>
       <c r="G23">
-        <v>2.612744424997572</v>
+        <v>2.612744424997601</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.3817954554443688</v>
+        <v>0.3817954554443901</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.999575857121798</v>
+        <v>1.999575857121783</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.652713759160008</v>
+        <v>3.652713759159951</v>
       </c>
       <c r="C24">
         <v>0.8669043114495878</v>
       </c>
       <c r="D24">
-        <v>0.007575159852542868</v>
+        <v>0.007575159852425628</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.052784129621529</v>
+        <v>3.052784129621472</v>
       </c>
       <c r="G24">
         <v>2.22807870359793</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.3200627910104572</v>
+        <v>0.320062791010443</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.675257007754851</v>
+        <v>1.675257007754837</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,13 +1286,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.943957854321013</v>
+        <v>2.9439578543209</v>
       </c>
       <c r="C25">
-        <v>0.7044960829175864</v>
+        <v>0.7044960829173874</v>
       </c>
       <c r="D25">
-        <v>0.007378261113192508</v>
+        <v>0.007378261113311524</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1301,7 +1301,7 @@
         <v>2.517442151605621</v>
       </c>
       <c r="G25">
-        <v>1.842960238508951</v>
+        <v>1.842960238508937</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.342384072932774</v>
+        <v>1.342384072932759</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_37/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_37/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.438309787209448</v>
+        <v>2.438092261636768</v>
       </c>
       <c r="C2">
-        <v>0.5883397054814168</v>
+        <v>0.5882454720555756</v>
       </c>
       <c r="D2">
-        <v>0.007206607109297991</v>
+        <v>0.00725055113273676</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.148575232578551</v>
+        <v>2.144298535600882</v>
       </c>
       <c r="G2">
-        <v>1.578398719149547</v>
+        <v>0.5067390910609362</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.071442841741273</v>
       </c>
       <c r="I2">
-        <v>0.2164604672816353</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2163891062446055</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1.10753280059479</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>1.107665375551782</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.102779799902976</v>
+        <v>2.102629176988899</v>
       </c>
       <c r="C3">
-        <v>0.5110527177866686</v>
+        <v>0.5109876043922554</v>
       </c>
       <c r="D3">
-        <v>0.007075130645501915</v>
+        <v>0.007111244734938182</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.910698619415086</v>
+        <v>1.906935493931385</v>
       </c>
       <c r="G3">
-        <v>1.408211476530099</v>
+        <v>0.4472692648746914</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.9613292121955652</v>
       </c>
       <c r="I3">
-        <v>0.1893799534195679</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.1893185285209249</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.9529829538152867</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0.9531093377064082</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.899453252209298</v>
+        <v>1.899338145856461</v>
       </c>
       <c r="C4">
-        <v>0.4641075071664034</v>
+        <v>0.4640587991000871</v>
       </c>
       <c r="D4">
-        <v>0.006987429158831659</v>
+        <v>0.007018676747742703</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.769568014879283</v>
+        <v>1.766113031624499</v>
       </c>
       <c r="G4">
-        <v>1.307428236374236</v>
+        <v>0.4119580738388748</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.896219507990935</v>
       </c>
       <c r="I4">
-        <v>0.1733337638468093</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.1732784717955695</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.8598622675136269</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0.8599831086637337</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.817161421903364</v>
+        <v>1.817059578996151</v>
       </c>
       <c r="C5">
-        <v>0.4450789282007008</v>
+        <v>0.4450365907754303</v>
       </c>
       <c r="D5">
-        <v>0.006950010863025824</v>
+        <v>0.006979260458994219</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.713155192344772</v>
+        <v>1.70982427261842</v>
       </c>
       <c r="G5">
-        <v>1.267187401901211</v>
+        <v>0.3978357029820785</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.8702469332439904</v>
       </c>
       <c r="I5">
-        <v>0.1669223704869864</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.1668695922053551</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.822294428841694</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0.8224126368400562</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.803528018881025</v>
+        <v>1.803428310389506</v>
       </c>
       <c r="C6">
-        <v>0.4419246906419687</v>
+        <v>0.4418833935699809</v>
       </c>
       <c r="D6">
-        <v>0.006943698353877537</v>
+        <v>0.006972615286928274</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.703850411713645</v>
+        <v>1.700540009816905</v>
       </c>
       <c r="G6">
-        <v>1.260552643385083</v>
+        <v>0.3955058575050714</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.8659661472898534</v>
       </c>
       <c r="I6">
-        <v>0.1658649573251374</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.1658125974988494</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.8160774221860763</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0.8161951720242726</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.898341286011259</v>
+        <v>1.898226363199171</v>
       </c>
       <c r="C7">
-        <v>0.4638505008751679</v>
+        <v>0.4638018799296333</v>
       </c>
       <c r="D7">
-        <v>0.006986931222636272</v>
+        <v>0.007018151926425631</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.768802937629019</v>
+        <v>1.765349633265359</v>
       </c>
       <c r="G7">
-        <v>1.306882308442042</v>
+        <v>0.4117665771520649</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.8958670509973672</v>
       </c>
       <c r="I7">
-        <v>0.1732468043760669</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.1731915461597104</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.8593541607156325</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0.8594749677928419</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.321990441190792</v>
+        <v>2.321797258964637</v>
       </c>
       <c r="C8">
-        <v>0.5615689046344983</v>
+        <v>0.5614850537424729</v>
       </c>
       <c r="D8">
-        <v>0.007162766224542594</v>
+        <v>0.007204022667588461</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.065444654217458</v>
+        <v>2.061346722310063</v>
       </c>
       <c r="G8">
-        <v>1.518881797232339</v>
+        <v>0.4859617626601249</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.032913388975473</v>
       </c>
       <c r="I8">
-        <v>0.2069906364383343</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2069226991411242</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1.053833889083784</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>1.053964731936674</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.179751983672418</v>
+        <v>3.179351307784884</v>
       </c>
       <c r="C9">
-        <v>0.7585680486105559</v>
+        <v>0.758400476902068</v>
       </c>
       <c r="D9">
-        <v>0.00744893200931962</v>
+        <v>0.007509406264658125</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.693303183776891</v>
+        <v>2.687868346812365</v>
       </c>
       <c r="G9">
-        <v>1.96933422820203</v>
+        <v>0.6427941931163446</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.324963069715025</v>
       </c>
       <c r="I9">
-        <v>0.2787260794408155</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.2786331427165578</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.452659857457405</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>1.452793132211823</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.835375443966484</v>
+        <v>3.834772929515395</v>
       </c>
       <c r="C10">
-        <v>0.9087130027987484</v>
+        <v>0.9084701295460036</v>
       </c>
       <c r="D10">
-        <v>0.007618873983627594</v>
+        <v>0.007693197070084423</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.193894762577258</v>
+        <v>3.187407422967937</v>
       </c>
       <c r="G10">
-        <v>2.329787560150621</v>
+        <v>0.7677582797505664</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.559219051984144</v>
       </c>
       <c r="I10">
-        <v>0.3363500107162452</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.3362378792084684</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.761718077482755</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>1.761836704006981</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.14152180589133</v>
+        <v>4.140812093159127</v>
       </c>
       <c r="C11">
-        <v>0.9787600465666628</v>
+        <v>0.9784785499529676</v>
       </c>
       <c r="D11">
-        <v>0.00768642604035108</v>
+        <v>0.007766994047397446</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.433102836996909</v>
+        <v>3.426114219671746</v>
       </c>
       <c r="G11">
-        <v>2.50236956176397</v>
+        <v>0.8274671032665566</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1.671506155079186</v>
       </c>
       <c r="I11">
-        <v>0.3640434891286759</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.3639221986620598</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.90723653178469</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>1.907343170358928</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.25881937926107</v>
+        <v>4.258066373272015</v>
       </c>
       <c r="C12">
-        <v>1.005592123493187</v>
+        <v>1.005295229435774</v>
       </c>
       <c r="D12">
-        <v>0.00771051624982988</v>
+        <v>0.007793441464698958</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.525625792125425</v>
+        <v>3.518443375282459</v>
       </c>
       <c r="G12">
-        <v>2.569176000948374</v>
+        <v>0.8505620866628902</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1.714991286314302</v>
       </c>
       <c r="I12">
-        <v>0.3747842499378393</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.3746594005844699</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.963191307166682</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>1.963292448887728</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.233492419611991</v>
+        <v>4.232748866524162</v>
       </c>
       <c r="C13">
-        <v>0.999798727586608</v>
+        <v>0.9995051865637947</v>
       </c>
       <c r="D13">
-        <v>0.007705395711088414</v>
+        <v>0.007787813592038617</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.505607968940325</v>
+        <v>3.498467480546509</v>
       </c>
       <c r="G13">
-        <v>2.554719617135703</v>
+        <v>0.8455653360685176</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1.705580605511742</v>
       </c>
       <c r="I13">
-        <v>0.3724590180683265</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.3723349397758611</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.951100137012503</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>1.951202508704114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.151143113698424</v>
+        <v>4.150429896462128</v>
       </c>
       <c r="C14">
-        <v>0.9809610381639402</v>
+        <v>0.9806782911837786</v>
       </c>
       <c r="D14">
-        <v>0.007688438339849668</v>
+        <v>0.007769200426494649</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.440674066382826</v>
+        <v>3.433669589523589</v>
       </c>
       <c r="G14">
-        <v>2.507835289463415</v>
+        <v>0.8293569725861545</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1.67506348662296</v>
       </c>
       <c r="I14">
-        <v>0.3649217911954068</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.3648002099517811</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.911822035444729</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>1.911928242236769</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.100887193612323</v>
+        <v>4.100192190208077</v>
       </c>
       <c r="C15">
-        <v>0.9694641674995523</v>
+        <v>0.9691879269409469</v>
       </c>
       <c r="D15">
-        <v>0.007677854714726706</v>
+        <v>0.00775760159847394</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.401162130428503</v>
+        <v>3.394240422194144</v>
       </c>
       <c r="G15">
-        <v>2.479313504603681</v>
+        <v>0.8194943394515803</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1.65650103462103</v>
       </c>
       <c r="I15">
-        <v>0.3603394134026843</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.3602193488587133</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.887878359949667</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>1.887986784719914</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.815545966600894</v>
+        <v>3.814950108806954</v>
       </c>
       <c r="C16">
-        <v>0.9041749602897653</v>
+        <v>0.9039345116409834</v>
       </c>
       <c r="D16">
-        <v>0.007614255606689824</v>
+        <v>0.007688169490904784</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.178516766446165</v>
+        <v>3.172061673678911</v>
       </c>
       <c r="G16">
-        <v>2.318699854114683</v>
+        <v>0.7639197535202555</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1.552007605186773</v>
       </c>
       <c r="I16">
-        <v>0.3345733141245759</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.334461770282438</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.752318850044986</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>1.752438137488681</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.642675342723237</v>
+        <v>3.642136050714214</v>
       </c>
       <c r="C17">
-        <v>0.8646062402070811</v>
+        <v>0.8643865364790315</v>
       </c>
       <c r="D17">
-        <v>0.007572679988312458</v>
+        <v>0.00764300162893683</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.045065015708104</v>
+        <v>3.038889930989768</v>
       </c>
       <c r="G17">
-        <v>2.222517168702282</v>
+        <v>0.7306081926452634</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1.48946427472633</v>
       </c>
       <c r="I17">
-        <v>0.3191728623240735</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.3190664181062672</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.670513316074292</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>1.670637780815341</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.543972658524922</v>
+        <v>3.543464488258905</v>
       </c>
       <c r="C18">
-        <v>0.842007833390312</v>
+        <v>0.8417996605055862</v>
       </c>
       <c r="D18">
-        <v>0.007547854000049981</v>
+        <v>0.007616104281263247</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.969368680492209</v>
+        <v>2.963352584115995</v>
       </c>
       <c r="G18">
-        <v>2.167991224426672</v>
+        <v>0.711712695890796</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1.454020061725544</v>
       </c>
       <c r="I18">
-        <v>0.3104514265196485</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.3103478774457145</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.623914955628067</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>1.624041910820964</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.510672165627284</v>
+        <v>3.510174303214001</v>
       </c>
       <c r="C19">
-        <v>0.8343823996177093</v>
+        <v>0.8341780659127664</v>
       </c>
       <c r="D19">
-        <v>0.007539294176535094</v>
+        <v>0.007606842230433841</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.943913427728688</v>
+        <v>2.937950827818526</v>
       </c>
       <c r="G19">
-        <v>2.149660305342124</v>
+        <v>0.7053583705814219</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1.442106149820788</v>
       </c>
       <c r="I19">
-        <v>0.3075207984064647</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.3074182238005108</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.60821156242595</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>1.608339282270876</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.661000815779346</v>
+        <v>3.66045565175267</v>
       </c>
       <c r="C20">
-        <v>0.8688014125306722</v>
+        <v>0.8685795429313146</v>
       </c>
       <c r="D20">
-        <v>0.007577200875369172</v>
+        <v>0.007647905452255799</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.05915935979877</v>
+        <v>3.05295468638684</v>
       </c>
       <c r="G20">
-        <v>2.232672160151026</v>
+        <v>0.7341264030468153</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1.496066405247262</v>
       </c>
       <c r="I20">
-        <v>0.3207978638860709</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.3206908809239337</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.67917370874008</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>1.679297674040313</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.175292000359377</v>
+        <v>4.174569950404418</v>
       </c>
       <c r="C21">
-        <v>0.9864853095282058</v>
+        <v>0.9861994143073503</v>
       </c>
       <c r="D21">
-        <v>0.007693460294474264</v>
+        <v>0.007774708932062779</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.459691558671636</v>
+        <v>3.452647246492802</v>
       </c>
       <c r="G21">
-        <v>2.521565029482758</v>
+        <v>0.8341039742573173</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1.683999694411185</v>
       </c>
       <c r="I21">
-        <v>0.3671284072157164</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.3670060952641023</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.923334653015303</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>1.92343976108198</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.51951012609004</v>
+        <v>4.518656431360455</v>
       </c>
       <c r="C22">
-        <v>1.065219311811063</v>
+        <v>1.064886985337864</v>
       </c>
       <c r="D22">
-        <v>0.007760712179132767</v>
+        <v>0.007848807798978896</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.732937822118402</v>
+        <v>3.725321122397702</v>
       </c>
       <c r="G22">
-        <v>2.718969520021673</v>
+        <v>0.9023117465728774</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1.812528544541891</v>
       </c>
       <c r="I22">
-        <v>0.3989119553861897</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.3987790764092907</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>2.087945897693487</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>2.088032976974503</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.33496769667164</v>
+        <v>4.334185919693141</v>
       </c>
       <c r="C23">
-        <v>1.023010058183189</v>
+        <v>1.022702988082216</v>
       </c>
       <c r="D23">
-        <v>0.007725647456524598</v>
+        <v>0.007810092642204225</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.585943969550158</v>
+        <v>3.578635211665443</v>
       </c>
       <c r="G23">
-        <v>2.612744424997601</v>
+        <v>0.8656185406440784</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1.743355794076805</v>
       </c>
       <c r="I23">
-        <v>0.3817954554443901</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.3816682786269041</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.999575857121783</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>1.99967315666575</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.652713759159951</v>
+        <v>3.652171254193547</v>
       </c>
       <c r="C24">
-        <v>0.8669043114495878</v>
+        <v>0.8666834222625255</v>
       </c>
       <c r="D24">
-        <v>0.007575159852425628</v>
+        <v>0.007645691323123316</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.052784129621472</v>
+        <v>3.046592839407964</v>
       </c>
       <c r="G24">
-        <v>2.22807870359793</v>
+        <v>0.7325350288457031</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.493079995250923</v>
       </c>
       <c r="I24">
-        <v>0.320062791010443</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.3199560517268054</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.675257007754837</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>1.675381200352419</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.9439578543209</v>
+        <v>2.943620624199866</v>
       </c>
       <c r="C25">
-        <v>0.7044960829173874</v>
+        <v>0.7043531798859419</v>
       </c>
       <c r="D25">
-        <v>0.007378261113311524</v>
+        <v>0.007433584929529502</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.517442151605621</v>
+        <v>2.51237919922437</v>
       </c>
       <c r="G25">
-        <v>1.842960238508937</v>
+        <v>0.5988827438135047</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.242937003128446</v>
       </c>
       <c r="I25">
-        <v>0.2585791470131795</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.2584930521668909</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.342384072932759</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>1.342519075260284</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_37/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_37/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.438092261636768</v>
+        <v>3.358790183513463</v>
       </c>
       <c r="C2">
-        <v>0.5882454720555756</v>
+        <v>0.4513472308127575</v>
       </c>
       <c r="D2">
-        <v>0.00725055113273676</v>
+        <v>0.005320302677412236</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.144298535600882</v>
+        <v>2.602096316543523</v>
       </c>
       <c r="G2">
-        <v>0.5067390910609362</v>
+        <v>0.0008275837918388899</v>
       </c>
       <c r="H2">
-        <v>1.071442841741273</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2163891062446055</v>
+        <v>0.08305753518468961</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.277237842306306</v>
       </c>
       <c r="M2">
-        <v>1.107665375551782</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1.915833779358564</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.102629176988899</v>
+        <v>2.932439891389947</v>
       </c>
       <c r="C3">
-        <v>0.5109876043922554</v>
+        <v>0.3918469180202635</v>
       </c>
       <c r="D3">
-        <v>0.007111244734938182</v>
+        <v>0.004819164132493725</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.906935493931385</v>
+        <v>2.433355740141451</v>
       </c>
       <c r="G3">
-        <v>0.4472692648746914</v>
+        <v>0.0008363826579767332</v>
       </c>
       <c r="H3">
-        <v>0.9613292121955652</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1893185285209249</v>
+        <v>0.08376503125939294</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2488589057627308</v>
       </c>
       <c r="M3">
-        <v>0.9531093377064082</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1.78800394811384</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.899338145856461</v>
+        <v>2.674969698159543</v>
       </c>
       <c r="C4">
-        <v>0.4640587991000871</v>
+        <v>0.3556630546395354</v>
       </c>
       <c r="D4">
-        <v>0.007018676747742703</v>
+        <v>0.00452735841318086</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.766113031624499</v>
+        <v>2.335026072627684</v>
       </c>
       <c r="G4">
-        <v>0.4119580738388748</v>
+        <v>0.0008419294596456134</v>
       </c>
       <c r="H4">
-        <v>0.896219507990935</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1732784717955695</v>
+        <v>0.08429468269064699</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2318135541384265</v>
       </c>
       <c r="M4">
-        <v>0.8599831086637337</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1.713555041560085</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.817059578996151</v>
+        <v>2.570999610984757</v>
       </c>
       <c r="C5">
-        <v>0.4450365907754303</v>
+        <v>0.3409881049750538</v>
       </c>
       <c r="D5">
-        <v>0.006979260458994219</v>
+        <v>0.004411747280514522</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.70982427261842</v>
+        <v>2.296171390685871</v>
       </c>
       <c r="G5">
-        <v>0.3978357029820785</v>
+        <v>0.0008442277882654863</v>
       </c>
       <c r="H5">
-        <v>0.8702469332439904</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1668695922053551</v>
+        <v>0.0845335085707184</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2249537192285942</v>
       </c>
       <c r="M5">
-        <v>0.8224126368400562</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1.684144742107407</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.803428310389506</v>
+        <v>2.553789232860083</v>
       </c>
       <c r="C6">
-        <v>0.4418833935699809</v>
+        <v>0.3385550990536217</v>
       </c>
       <c r="D6">
-        <v>0.006972615286928274</v>
+        <v>0.004392730677966306</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.700540009816905</v>
+        <v>2.289789916742265</v>
       </c>
       <c r="G6">
-        <v>0.3955058575050714</v>
+        <v>0.0008446117636919891</v>
       </c>
       <c r="H6">
-        <v>0.8659661472898534</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1658125974988494</v>
+        <v>0.0845745271417826</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2238196079880339</v>
       </c>
       <c r="M6">
-        <v>0.8161951720242726</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1.679314825227166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.898226363199171</v>
+        <v>2.673563837536562</v>
       </c>
       <c r="C7">
-        <v>0.4638018799296333</v>
+        <v>0.3554648807872525</v>
       </c>
       <c r="D7">
-        <v>0.007018151926425631</v>
+        <v>0.004525786734825843</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.765349633265359</v>
+        <v>2.334497284480662</v>
       </c>
       <c r="G7">
-        <v>0.4117665771520649</v>
+        <v>0.0008419602997630077</v>
       </c>
       <c r="H7">
-        <v>0.8958670509973672</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1731915461597104</v>
+        <v>0.08429781171740558</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2317207021462053</v>
       </c>
       <c r="M7">
-        <v>0.8594749677928419</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1.713154755983709</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.321797258964637</v>
+        <v>3.210806213132344</v>
       </c>
       <c r="C8">
-        <v>0.5614850537424729</v>
+        <v>0.4307478322686507</v>
       </c>
       <c r="D8">
-        <v>0.007204022667588461</v>
+        <v>0.005143768124625137</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.061346722310063</v>
+        <v>2.542748990115129</v>
       </c>
       <c r="G8">
-        <v>0.4859617626601249</v>
+        <v>0.0008305887568931631</v>
       </c>
       <c r="H8">
-        <v>1.032913388975473</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2069226991411242</v>
+        <v>0.08328110905030073</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2673682846868246</v>
       </c>
       <c r="M8">
-        <v>1.053964731936674</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1.870864772609735</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.179351307784884</v>
+        <v>4.305228899985707</v>
       </c>
       <c r="C9">
-        <v>0.758400476902068</v>
+        <v>0.582043733139983</v>
       </c>
       <c r="D9">
-        <v>0.007509406264658125</v>
+        <v>0.006517622579527149</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.687868346812365</v>
+        <v>2.998583541517064</v>
       </c>
       <c r="G9">
-        <v>0.6427941931163446</v>
+        <v>0.0008093499470787488</v>
       </c>
       <c r="H9">
-        <v>1.324963069715025</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2786331427165578</v>
+        <v>0.08209067984297391</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.3407427517602599</v>
       </c>
       <c r="M9">
-        <v>1.452793132211823</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>2.216550474873046</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.834772929515395</v>
+        <v>5.144752762853557</v>
       </c>
       <c r="C10">
-        <v>0.9084701295460036</v>
+        <v>0.6968485402769033</v>
       </c>
       <c r="D10">
-        <v>0.007693197070084423</v>
+        <v>0.007683968698486865</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.187407422967937</v>
+        <v>3.371129490388341</v>
       </c>
       <c r="G10">
-        <v>0.7677582797505664</v>
+        <v>0.0007942619412160054</v>
       </c>
       <c r="H10">
-        <v>1.559219051984144</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3362378792084684</v>
+        <v>0.08177949501727966</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.3974870993104531</v>
       </c>
       <c r="M10">
-        <v>1.761836704006981</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>2.49955585829457</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.140812093159127</v>
+        <v>5.537096611655159</v>
       </c>
       <c r="C11">
-        <v>0.9784785499529676</v>
+        <v>0.7502371813591253</v>
       </c>
       <c r="D11">
-        <v>0.007766994047397446</v>
+        <v>0.008264481831199433</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.426114219671746</v>
+        <v>3.551034515250052</v>
       </c>
       <c r="G11">
-        <v>0.8274671032665566</v>
+        <v>0.0007874766930553445</v>
       </c>
       <c r="H11">
-        <v>1.671506155079186</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.3639221986620598</v>
+        <v>0.08177915430238514</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.4241035829930411</v>
       </c>
       <c r="M11">
-        <v>1.907343170358928</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>2.636370816574939</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.258066373272015</v>
+        <v>5.687430749799262</v>
       </c>
       <c r="C12">
-        <v>1.005295229435774</v>
+        <v>0.7706571590196916</v>
       </c>
       <c r="D12">
-        <v>0.007793441464698958</v>
+        <v>0.00849308594210374</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.518443375282459</v>
+        <v>3.620877282956798</v>
       </c>
       <c r="G12">
-        <v>0.8505620866628902</v>
+        <v>0.0007849153729183559</v>
       </c>
       <c r="H12">
-        <v>1.714991286314302</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.3746594005844699</v>
+        <v>0.08180115198650384</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.4343159341733127</v>
       </c>
       <c r="M12">
-        <v>1.963292448887728</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>2.68951078833247</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.232748866524162</v>
+        <v>5.65497070128373</v>
       </c>
       <c r="C13">
-        <v>0.9995051865637947</v>
+        <v>0.7662497082782522</v>
       </c>
       <c r="D13">
-        <v>0.007787813592038617</v>
+        <v>0.008443433294780256</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.498467480546509</v>
+        <v>3.605755280452883</v>
       </c>
       <c r="G13">
-        <v>0.8455653360685176</v>
+        <v>0.0007854666932694701</v>
       </c>
       <c r="H13">
-        <v>1.705580605511742</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3723349397758611</v>
+        <v>0.08179539876576669</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.4321102859850612</v>
       </c>
       <c r="M13">
-        <v>1.951202508704114</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>2.678003985172865</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.150429896462128</v>
+        <v>5.549427757427111</v>
       </c>
       <c r="C14">
-        <v>0.9806782911837786</v>
+        <v>0.7519128578020116</v>
       </c>
       <c r="D14">
-        <v>0.007769200426494649</v>
+        <v>0.008283103230578348</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.433669589523589</v>
+        <v>3.556744772534813</v>
       </c>
       <c r="G14">
-        <v>0.8293569725861545</v>
+        <v>0.0007872658288901208</v>
       </c>
       <c r="H14">
-        <v>1.67506348662296</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3648002099517811</v>
+        <v>0.08178050934234449</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.4249409781413931</v>
       </c>
       <c r="M14">
-        <v>1.911928242236769</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>2.640714939685168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.100192190208077</v>
+        <v>5.485017468472165</v>
       </c>
       <c r="C15">
-        <v>0.9691879269409469</v>
+        <v>0.7431586827556487</v>
       </c>
       <c r="D15">
-        <v>0.00775760159847394</v>
+        <v>0.008186091333399759</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.394240422194144</v>
+        <v>3.526954904211607</v>
       </c>
       <c r="G15">
-        <v>0.8194943394515803</v>
+        <v>0.0007883688059661584</v>
       </c>
       <c r="H15">
-        <v>1.65650103462103</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.3602193488587133</v>
+        <v>0.08177432873042889</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.4205674930805685</v>
       </c>
       <c r="M15">
-        <v>1.887986784719914</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>2.618053113859972</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.814950108806954</v>
+        <v>5.119343756594333</v>
       </c>
       <c r="C16">
-        <v>0.9039345116409834</v>
+        <v>0.6933858051737616</v>
       </c>
       <c r="D16">
-        <v>0.007688169490904784</v>
+        <v>0.007647166077447309</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.172061673678911</v>
+        <v>3.359600051871354</v>
       </c>
       <c r="G16">
-        <v>0.7639197535202555</v>
+        <v>0.0007947066888929211</v>
       </c>
       <c r="H16">
-        <v>1.552007605186773</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.334461770282438</v>
+        <v>0.08178250925756814</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.3957652780033953</v>
       </c>
       <c r="M16">
-        <v>1.752438137488681</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>2.490791177636225</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.642136050714214</v>
+        <v>4.897863607050795</v>
       </c>
       <c r="C17">
-        <v>0.8643865364790315</v>
+        <v>0.6631735057794685</v>
       </c>
       <c r="D17">
-        <v>0.00764300162893683</v>
+        <v>0.007330397223563878</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.038889930989768</v>
+        <v>3.259750387551378</v>
       </c>
       <c r="G17">
-        <v>0.7306081926452634</v>
+        <v>0.0007986127202094938</v>
       </c>
       <c r="H17">
-        <v>1.48946427472633</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3190664181062672</v>
+        <v>0.08182492053458645</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.3807675655860123</v>
       </c>
       <c r="M17">
-        <v>1.670637780815341</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>2.414902151901842</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.543464488258905</v>
+        <v>4.771439246661885</v>
       </c>
       <c r="C18">
-        <v>0.8417996605055862</v>
+        <v>0.6459032902194508</v>
       </c>
       <c r="D18">
-        <v>0.007616104281263247</v>
+        <v>0.007152790602969361</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.963352584115995</v>
+        <v>3.203286873368398</v>
       </c>
       <c r="G18">
-        <v>0.711712695890796</v>
+        <v>0.0008008669535411419</v>
       </c>
       <c r="H18">
-        <v>1.454020061725544</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3103478774457145</v>
+        <v>0.08186248488845038</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.3722156866800788</v>
       </c>
       <c r="M18">
-        <v>1.624041910820964</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>2.372001369523232</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.510174303214001</v>
+        <v>4.728792509054983</v>
       </c>
       <c r="C19">
-        <v>0.8341780659127664</v>
+        <v>0.640073281881655</v>
       </c>
       <c r="D19">
-        <v>0.007606842230433841</v>
+        <v>0.007093400055651067</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.937950827818526</v>
+        <v>3.18432930631235</v>
       </c>
       <c r="G19">
-        <v>0.7053583705814219</v>
+        <v>0.0008016315911377512</v>
       </c>
       <c r="H19">
-        <v>1.442106149820788</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3074182238005108</v>
+        <v>0.0818774138500693</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.36933244302638</v>
       </c>
       <c r="M19">
-        <v>1.608339282270876</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>2.357599652516626</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.66045565175267</v>
+        <v>4.921338877590813</v>
       </c>
       <c r="C20">
-        <v>0.8685795429313146</v>
+        <v>0.6663783302267632</v>
       </c>
       <c r="D20">
-        <v>0.007647905452255799</v>
+        <v>0.00736363199232315</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.05295468638684</v>
+        <v>3.270277958003646</v>
       </c>
       <c r="G20">
-        <v>0.7341264030468153</v>
+        <v>0.0007981961529021895</v>
       </c>
       <c r="H20">
-        <v>1.496066405247262</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3206908809239337</v>
+        <v>0.08181903023911374</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.3823562753380401</v>
       </c>
       <c r="M20">
-        <v>1.679297674040313</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>2.422902033470947</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.174569950404418</v>
+        <v>5.580378202303677</v>
       </c>
       <c r="C21">
-        <v>0.9861994143073503</v>
+        <v>0.7561181241047166</v>
       </c>
       <c r="D21">
-        <v>0.007774708932062779</v>
+        <v>0.008329943803710549</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.452647246492802</v>
+        <v>3.571091885609661</v>
       </c>
       <c r="G21">
-        <v>0.8341039742573173</v>
+        <v>0.0007867371864487679</v>
       </c>
       <c r="H21">
-        <v>1.683999694411185</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.3670060952641023</v>
+        <v>0.08178426653033455</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.4270430073755307</v>
       </c>
       <c r="M21">
-        <v>1.92343976108198</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>2.651630039494563</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.518656431360455</v>
+        <v>6.021516816581141</v>
       </c>
       <c r="C22">
-        <v>1.064886985337864</v>
+        <v>0.8159710165345189</v>
       </c>
       <c r="D22">
-        <v>0.007848807798978896</v>
+        <v>0.009013586407795593</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.725321122397702</v>
+        <v>3.777819761919886</v>
       </c>
       <c r="G22">
-        <v>0.9023117465728774</v>
+        <v>0.000779293555993573</v>
       </c>
       <c r="H22">
-        <v>1.812528544541891</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3987790764092907</v>
+        <v>0.08189154155347111</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.4570351886966222</v>
       </c>
       <c r="M22">
-        <v>2.088032976974503</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>2.808972225885</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.334185919693141</v>
+        <v>5.785023815948705</v>
       </c>
       <c r="C23">
-        <v>1.022702988082216</v>
+        <v>0.7839032277568947</v>
       </c>
       <c r="D23">
-        <v>0.007810092642204225</v>
+        <v>0.008643345463040575</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.578635211665443</v>
+        <v>3.666478951676424</v>
       </c>
       <c r="G23">
-        <v>0.8656185406440784</v>
+        <v>0.0007832633588732743</v>
       </c>
       <c r="H23">
-        <v>1.743355794076805</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.3816682786269041</v>
+        <v>0.08182172694240819</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.4409492904002263</v>
       </c>
       <c r="M23">
-        <v>1.99967315666575</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>2.724214536495296</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.652171254193547</v>
+        <v>4.910722900276426</v>
       </c>
       <c r="C24">
-        <v>0.8666834222625255</v>
+        <v>0.6649291226102605</v>
       </c>
       <c r="D24">
-        <v>0.007645691323123316</v>
+        <v>0.007348592628742878</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.046592839407964</v>
+        <v>3.265515527177058</v>
       </c>
       <c r="G24">
-        <v>0.7325350288457031</v>
+        <v>0.0007983844558995815</v>
       </c>
       <c r="H24">
-        <v>1.493079995250923</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3199560517268054</v>
+        <v>0.08182165231868055</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.3816378013611228</v>
       </c>
       <c r="M24">
-        <v>1.675381200352419</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>2.419283029425173</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.943620624199866</v>
+        <v>4.003768180029397</v>
       </c>
       <c r="C25">
-        <v>0.7043531798859419</v>
+        <v>0.5405862011890008</v>
       </c>
       <c r="D25">
-        <v>0.007433584929529502</v>
+        <v>0.006123126376015975</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.51237919922437</v>
+        <v>2.869348246576891</v>
       </c>
       <c r="G25">
-        <v>0.5988827438135047</v>
+        <v>0.0008149946710856038</v>
       </c>
       <c r="H25">
-        <v>1.242937003128446</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2584930521668909</v>
+        <v>0.08231959981139525</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.3204521141895782</v>
       </c>
       <c r="M25">
-        <v>1.342519075260284</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>2.118476878958219</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_37/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_37/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.358790183513463</v>
+        <v>1.18678819107663</v>
       </c>
       <c r="C2">
-        <v>0.4513472308127575</v>
+        <v>0.172473797160535</v>
       </c>
       <c r="D2">
-        <v>0.005320302677412236</v>
+        <v>0.2697389801092243</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.602096316543523</v>
+        <v>1.257273974088776</v>
       </c>
       <c r="G2">
-        <v>0.0008275837918388899</v>
+        <v>0.822426435666344</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.5693286614928326</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.08305753518468961</v>
+        <v>0.4326587554466954</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.263546012317562</v>
       </c>
       <c r="L2">
-        <v>0.277237842306306</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.9434130616650727</v>
       </c>
       <c r="O2">
-        <v>1.915833779358564</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.932439891389947</v>
+        <v>1.03016634963825</v>
       </c>
       <c r="C3">
-        <v>0.3918469180202635</v>
+        <v>0.1496763691212522</v>
       </c>
       <c r="D3">
-        <v>0.004819164132493725</v>
+        <v>0.2363739731339223</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.433355740141451</v>
+        <v>1.183006180436465</v>
       </c>
       <c r="G3">
-        <v>0.0008363826579767332</v>
+        <v>0.7787261504603578</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.5566846081635646</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.08376503125939294</v>
+        <v>0.3819848909357546</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1.095105186229546</v>
       </c>
       <c r="L3">
-        <v>0.2488589057627308</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.9905066898881252</v>
       </c>
       <c r="O3">
-        <v>1.78800394811384</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.674969698159543</v>
+        <v>0.9348004177680878</v>
       </c>
       <c r="C4">
-        <v>0.3556630546395354</v>
+        <v>0.1357555446776644</v>
       </c>
       <c r="D4">
-        <v>0.00452735841318086</v>
+        <v>0.2161074906854736</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.335026072627684</v>
+        <v>1.139688114421887</v>
       </c>
       <c r="G4">
-        <v>0.0008419294596456134</v>
+        <v>0.7536077972899164</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.549905721631788</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08429468269064699</v>
+        <v>0.3514606555756217</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.9924689007655445</v>
       </c>
       <c r="L4">
-        <v>0.2318135541384265</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1.020805951524828</v>
       </c>
       <c r="O4">
-        <v>1.713555041560085</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.570999610984757</v>
+        <v>0.8961125107257146</v>
       </c>
       <c r="C5">
-        <v>0.3409881049750538</v>
+        <v>0.1300980628731878</v>
       </c>
       <c r="D5">
-        <v>0.004411747280514522</v>
+        <v>0.207898029300722</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.296171390685871</v>
+        <v>1.122573150277645</v>
       </c>
       <c r="G5">
-        <v>0.0008442277882654863</v>
+        <v>0.7437752469434855</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.5473783894838249</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0845335085707184</v>
+        <v>0.3391556760643937</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.9508128497276971</v>
       </c>
       <c r="L5">
-        <v>0.2249537192285942</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1.033490436603667</v>
       </c>
       <c r="O5">
-        <v>1.684144742107407</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.553789232860083</v>
+        <v>0.8896981988041546</v>
       </c>
       <c r="C6">
-        <v>0.3385550990536217</v>
+        <v>0.1291594594308378</v>
       </c>
       <c r="D6">
-        <v>0.004392730677966306</v>
+        <v>0.2065376641779011</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.289789916742265</v>
+        <v>1.11976266131208</v>
       </c>
       <c r="G6">
-        <v>0.0008446117636919891</v>
+        <v>0.7421661477326609</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.5469725780541239</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0845745271417826</v>
+        <v>0.3371201263357051</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.9439052960664753</v>
       </c>
       <c r="L6">
-        <v>0.2238196079880339</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1.035616758763993</v>
       </c>
       <c r="O6">
-        <v>1.679314825227166</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.673563837536562</v>
+        <v>0.934277986898195</v>
       </c>
       <c r="C7">
-        <v>0.3554648807872525</v>
+        <v>0.1356791887332491</v>
       </c>
       <c r="D7">
-        <v>0.004525786734825843</v>
+        <v>0.2159965830504831</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.334497284480662</v>
+        <v>1.1394551663643</v>
       </c>
       <c r="G7">
-        <v>0.0008419602997630077</v>
+        <v>0.7534735940383399</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.5498707010930985</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.08429781171740558</v>
+        <v>0.3512941825711948</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.9919064649752158</v>
       </c>
       <c r="L7">
-        <v>0.2317207021462053</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1.02097566681358</v>
       </c>
       <c r="O7">
-        <v>1.713154755983709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.210806213132344</v>
+        <v>1.132602139020548</v>
       </c>
       <c r="C8">
-        <v>0.4307478322686507</v>
+        <v>0.1645948094121934</v>
       </c>
       <c r="D8">
-        <v>0.005143768124625137</v>
+        <v>0.2581853978699939</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.542748990115129</v>
+        <v>1.231169997747855</v>
       </c>
       <c r="G8">
-        <v>0.0008305887568931631</v>
+        <v>0.8069857561975908</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.5647568888478531</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08328110905030073</v>
+        <v>0.4150550510572373</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.205286290176872</v>
       </c>
       <c r="L8">
-        <v>0.2673682846868246</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.9593571931802707</v>
       </c>
       <c r="O8">
-        <v>1.870864772609735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.305228899985707</v>
+        <v>1.529180204362575</v>
       </c>
       <c r="C9">
-        <v>0.582043733139983</v>
+        <v>0.2221037605755782</v>
       </c>
       <c r="D9">
-        <v>0.006517622579527149</v>
+        <v>0.3429534731754273</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.998583541517064</v>
+        <v>1.430905504287551</v>
       </c>
       <c r="G9">
-        <v>0.0008093499470787488</v>
+        <v>0.9268570911637539</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.6023654781599248</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08209067984297391</v>
+        <v>0.5454714877965614</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.631383061116566</v>
       </c>
       <c r="L9">
-        <v>0.3407427517602599</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.8500113227121773</v>
       </c>
       <c r="O9">
-        <v>2.216550474873046</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.144752762853557</v>
+        <v>1.827211540670106</v>
       </c>
       <c r="C10">
-        <v>0.6968485402769033</v>
+        <v>0.2651451801423406</v>
       </c>
       <c r="D10">
-        <v>0.007683968698486865</v>
+        <v>0.4069170200300505</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.371129490388341</v>
+        <v>1.592439356363755</v>
       </c>
       <c r="G10">
-        <v>0.0007942619412160054</v>
+        <v>1.026039915943386</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.6360366791523404</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.08177949501727966</v>
+        <v>0.6456325016698798</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.951255158505802</v>
       </c>
       <c r="L10">
-        <v>0.3974870993104531</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.7774379132447535</v>
       </c>
       <c r="O10">
-        <v>2.49955585829457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.537096611655159</v>
+        <v>1.964727172061913</v>
       </c>
       <c r="C11">
-        <v>0.7502371813591253</v>
+        <v>0.2849708661832722</v>
       </c>
       <c r="D11">
-        <v>0.008264481831199433</v>
+        <v>0.4364896492746198</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.551034515250052</v>
+        <v>1.669787106892798</v>
       </c>
       <c r="G11">
-        <v>0.0007874766930553445</v>
+        <v>1.074063982979595</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.6528880944966176</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08177915430238514</v>
+        <v>0.6924020868098637</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>2.098779334368317</v>
       </c>
       <c r="L11">
-        <v>0.4241035829930411</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.7462937990470095</v>
       </c>
       <c r="O11">
-        <v>2.636370816574939</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.687430749799262</v>
+        <v>2.01712364580797</v>
       </c>
       <c r="C12">
-        <v>0.7706571590196916</v>
+        <v>0.2925204222666764</v>
       </c>
       <c r="D12">
-        <v>0.00849308594210374</v>
+        <v>0.4477661749206732</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.620877282956798</v>
+        <v>1.699691978781431</v>
       </c>
       <c r="G12">
-        <v>0.0007849153729183559</v>
+        <v>1.092712081424608</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.6595102529969381</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.08180115198650384</v>
+        <v>0.7103097212435756</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>2.154979942920789</v>
       </c>
       <c r="L12">
-        <v>0.4343159341733127</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.7347865132584985</v>
       </c>
       <c r="O12">
-        <v>2.68951078833247</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.65497070128373</v>
+        <v>2.005824061761871</v>
       </c>
       <c r="C13">
-        <v>0.7662497082782522</v>
+        <v>0.2908925098338386</v>
       </c>
       <c r="D13">
-        <v>0.008443433294780256</v>
+        <v>0.4453339404709595</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.605755280452883</v>
+        <v>1.693223080175031</v>
       </c>
       <c r="G13">
-        <v>0.0007854666932694701</v>
+        <v>1.088674559191972</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.6580729963810938</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.08179539876576669</v>
+        <v>0.7064438302760578</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>2.142860380872833</v>
       </c>
       <c r="L13">
-        <v>0.4321102859850612</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.7372517848463502</v>
       </c>
       <c r="O13">
-        <v>2.678003985172865</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.549427757427111</v>
+        <v>1.969031140160496</v>
       </c>
       <c r="C14">
-        <v>0.7519128578020116</v>
+        <v>0.2855910906930603</v>
       </c>
       <c r="D14">
-        <v>0.008283103230578348</v>
+        <v>0.4374157538678674</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.556744772534813</v>
+        <v>1.672234716265038</v>
       </c>
       <c r="G14">
-        <v>0.0007872658288901208</v>
+        <v>1.075588635497041</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.6534279529396372</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.08178050934234449</v>
+        <v>0.6938712672860561</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>2.10339596594585</v>
       </c>
       <c r="L14">
-        <v>0.4249409781413931</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.745341244120489</v>
       </c>
       <c r="O14">
-        <v>2.640714939685168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.485017468472165</v>
+        <v>1.94653773762019</v>
       </c>
       <c r="C15">
-        <v>0.7431586827556487</v>
+        <v>0.2823494957191031</v>
       </c>
       <c r="D15">
-        <v>0.008186091333399759</v>
+        <v>0.432576097163917</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.526954904211607</v>
+        <v>1.659460668936759</v>
       </c>
       <c r="G15">
-        <v>0.0007883688059661584</v>
+        <v>1.067634744330377</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.6506147340167985</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.08177432873042889</v>
+        <v>0.6861966036505152</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>2.079268148729085</v>
       </c>
       <c r="L15">
-        <v>0.4205674930805685</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.7503341021014691</v>
       </c>
       <c r="O15">
-        <v>2.618053113859972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.119343756594333</v>
+        <v>1.818267222600099</v>
       </c>
       <c r="C16">
-        <v>0.6933858051737616</v>
+        <v>0.2638550265072723</v>
       </c>
       <c r="D16">
-        <v>0.007647166077447309</v>
+        <v>0.4049947501495978</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.359600051871354</v>
+        <v>1.587467213769258</v>
       </c>
       <c r="G16">
-        <v>0.0007947066888929211</v>
+        <v>1.022963619342136</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.6349679641496806</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.08178250925756814</v>
+        <v>0.6426022330580139</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.941658528628693</v>
       </c>
       <c r="L16">
-        <v>0.3957652780033953</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.7795123358285636</v>
       </c>
       <c r="O16">
-        <v>2.490791177636225</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.897863607050795</v>
+        <v>1.740103887033058</v>
       </c>
       <c r="C17">
-        <v>0.6631735057794685</v>
+        <v>0.2525767820994957</v>
       </c>
       <c r="D17">
-        <v>0.007330397223563878</v>
+        <v>0.3882028329691423</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.259750387551378</v>
+        <v>1.544331988207261</v>
       </c>
       <c r="G17">
-        <v>0.0007986127202094938</v>
+        <v>0.9963339907653648</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.6257759939661867</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.08182492053458645</v>
+        <v>0.6161834714728371</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.857787118086833</v>
       </c>
       <c r="L17">
-        <v>0.3807675655860123</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.7979030793279023</v>
       </c>
       <c r="O17">
-        <v>2.414902151901842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.771439246661885</v>
+        <v>1.695326162650446</v>
       </c>
       <c r="C18">
-        <v>0.6459032902194508</v>
+        <v>0.2461125491668383</v>
       </c>
       <c r="D18">
-        <v>0.007152790602969361</v>
+        <v>0.3785886756189143</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.203286873368398</v>
+        <v>1.519881718975768</v>
       </c>
       <c r="G18">
-        <v>0.0008008669535411419</v>
+        <v>0.9812878964224012</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.6206321074977836</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.08186248488845038</v>
+        <v>0.6011000617822333</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.809732900044594</v>
       </c>
       <c r="L18">
-        <v>0.3722156866800788</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.8086558204856757</v>
       </c>
       <c r="O18">
-        <v>2.372001369523232</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.728792509054983</v>
+        <v>1.680194808381771</v>
       </c>
       <c r="C19">
-        <v>0.640073281881655</v>
+        <v>0.2439275802654919</v>
       </c>
       <c r="D19">
-        <v>0.007093400055651067</v>
+        <v>0.3753407821793644</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.18432930631235</v>
+        <v>1.511663385515789</v>
       </c>
       <c r="G19">
-        <v>0.0008016315911377512</v>
+        <v>0.9762387201600973</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.6189144633073624</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.0818774138500693</v>
+        <v>0.5960116235936397</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.793493218024707</v>
       </c>
       <c r="L19">
-        <v>0.36933244302638</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.812326042311561</v>
       </c>
       <c r="O19">
-        <v>2.357599652516626</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.921338877590813</v>
+        <v>1.748405601142593</v>
       </c>
       <c r="C20">
-        <v>0.6663783302267632</v>
+        <v>0.253774973497741</v>
       </c>
       <c r="D20">
-        <v>0.00736363199232315</v>
+        <v>0.3899857287675559</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.270277958003646</v>
+        <v>1.548886139082938</v>
       </c>
       <c r="G20">
-        <v>0.0007981961529021895</v>
+        <v>0.9991404469923708</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.6267395442965835</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.08181903023911374</v>
+        <v>0.6189840418053336</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.86669575438404</v>
       </c>
       <c r="L20">
-        <v>0.3823562753380401</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.7959271334035947</v>
       </c>
       <c r="O20">
-        <v>2.422902033470947</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.580378202303677</v>
+        <v>1.979829001449133</v>
       </c>
       <c r="C21">
-        <v>0.7561181241047166</v>
+        <v>0.2871470500972464</v>
       </c>
       <c r="D21">
-        <v>0.008329943803710549</v>
+        <v>0.439739318612169</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.571091885609661</v>
+        <v>1.678382319894794</v>
       </c>
       <c r="G21">
-        <v>0.0007867371864487679</v>
+        <v>1.079419362593271</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.6547856063351674</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.08178426653033455</v>
+        <v>0.6975585879978468</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>2.114978095758829</v>
       </c>
       <c r="L21">
-        <v>0.4270430073755307</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.7429572566396843</v>
       </c>
       <c r="O21">
-        <v>2.651630039494563</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.021516816581141</v>
+        <v>2.132979100552177</v>
       </c>
       <c r="C22">
-        <v>0.8159710165345189</v>
+        <v>0.3092059876836402</v>
       </c>
       <c r="D22">
-        <v>0.009013586407795593</v>
+        <v>0.4727160120806957</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.777819761919886</v>
+        <v>1.766631390304909</v>
       </c>
       <c r="G22">
-        <v>0.000779293555993573</v>
+        <v>1.13460534027746</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.6745302037446379</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.08189154155347111</v>
+        <v>0.7500724894375708</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>2.27923073425805</v>
       </c>
       <c r="L22">
-        <v>0.4570351886966222</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.7100164918089433</v>
       </c>
       <c r="O22">
-        <v>2.808972225885</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.785023815948705</v>
+        <v>2.051050662243426</v>
       </c>
       <c r="C23">
-        <v>0.7839032277568947</v>
+        <v>0.2974076298783359</v>
       </c>
       <c r="D23">
-        <v>0.008643345463040575</v>
+        <v>0.4550702289869264</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.666478951676424</v>
+        <v>1.719179390882275</v>
       </c>
       <c r="G23">
-        <v>0.0007832633588732743</v>
+        <v>1.104886929483982</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.6638554924701054</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.08182172694240819</v>
+        <v>0.7219302241842342</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>2.191367655870465</v>
       </c>
       <c r="L23">
-        <v>0.4409492904002263</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.7274378732126152</v>
       </c>
       <c r="O23">
-        <v>2.724214536495296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.910722900276426</v>
+        <v>1.744651902872135</v>
       </c>
       <c r="C24">
-        <v>0.6649291226102605</v>
+        <v>0.2532332100501549</v>
       </c>
       <c r="D24">
-        <v>0.007348592628742878</v>
+        <v>0.3891795585174123</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.265515527177058</v>
+        <v>1.546826125611517</v>
       </c>
       <c r="G24">
-        <v>0.0007983844558995815</v>
+        <v>0.9978708302983961</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.6263034864549581</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.08182165231868055</v>
+        <v>0.6177175783894597</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.862667650804411</v>
       </c>
       <c r="L24">
-        <v>0.3816378013611228</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.7968199002610064</v>
       </c>
       <c r="O24">
-        <v>2.419283029425173</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.003768180029397</v>
+        <v>1.420878459772865</v>
       </c>
       <c r="C25">
-        <v>0.5405862011890008</v>
+        <v>0.206430542615891</v>
       </c>
       <c r="D25">
-        <v>0.006123126376015975</v>
+        <v>0.3197598442827712</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.869348246576891</v>
+        <v>1.374480607549671</v>
       </c>
       <c r="G25">
-        <v>0.0008149946710856038</v>
+        <v>0.8926321391940348</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.5912008303127578</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.08231959981139525</v>
+        <v>0.5095097156463027</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.515081045468946</v>
       </c>
       <c r="L25">
-        <v>0.3204521141895782</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.8782878018507425</v>
       </c>
       <c r="O25">
-        <v>2.118476878958219</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_37/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_37/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.18678819107663</v>
+        <v>0.585894948492836</v>
       </c>
       <c r="C2">
-        <v>0.172473797160535</v>
+        <v>0.05481939930005808</v>
       </c>
       <c r="D2">
-        <v>0.2697389801092243</v>
+        <v>0.2242817457523358</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.257273974088776</v>
+        <v>1.910637016552201</v>
       </c>
       <c r="G2">
-        <v>0.822426435666344</v>
+        <v>1.174436044363546</v>
       </c>
       <c r="H2">
-        <v>0.5693286614928326</v>
+        <v>1.137536967554624</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.4326587554466954</v>
+        <v>0.3517343430940798</v>
       </c>
       <c r="K2">
-        <v>1.263546012317562</v>
+        <v>0.5636292628394983</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9434130616650727</v>
+        <v>1.918041824904009</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.03016634963825</v>
+        <v>0.5443818955349968</v>
       </c>
       <c r="C3">
-        <v>0.1496763691212522</v>
+        <v>0.04840214020775591</v>
       </c>
       <c r="D3">
-        <v>0.2363739731339223</v>
+        <v>0.216537183565066</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.183006180436465</v>
+        <v>1.904055078749934</v>
       </c>
       <c r="G3">
-        <v>0.7787261504603578</v>
+        <v>1.171183168931677</v>
       </c>
       <c r="H3">
-        <v>0.5566846081635646</v>
+        <v>1.141032829470376</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3819848909357546</v>
+        <v>0.3406371280884315</v>
       </c>
       <c r="K3">
-        <v>1.095105186229546</v>
+        <v>0.5183171290006499</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9905066898881252</v>
+        <v>1.937447975651221</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9348004177680878</v>
+        <v>0.5191546769189301</v>
       </c>
       <c r="C4">
-        <v>0.1357555446776644</v>
+        <v>0.04446839529647661</v>
       </c>
       <c r="D4">
-        <v>0.2161074906854736</v>
+        <v>0.2118888394106904</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.139688114421887</v>
+        <v>1.901035710885026</v>
       </c>
       <c r="G4">
-        <v>0.7536077972899164</v>
+        <v>1.169880721440464</v>
       </c>
       <c r="H4">
-        <v>0.549905721631788</v>
+        <v>1.143677737759958</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3514606555756217</v>
+        <v>0.3340338975760204</v>
       </c>
       <c r="K4">
-        <v>0.9924689007655445</v>
+        <v>0.4907217174864797</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.020805951524828</v>
+        <v>1.949999629008044</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8961125107257146</v>
+        <v>0.5089404865562699</v>
       </c>
       <c r="C5">
-        <v>0.1300980628731878</v>
+        <v>0.04286700172465885</v>
       </c>
       <c r="D5">
-        <v>0.207898029300722</v>
+        <v>0.2100215301519199</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.122573150277645</v>
+        <v>1.900062121247714</v>
       </c>
       <c r="G5">
-        <v>0.7437752469434855</v>
+        <v>1.169524435617362</v>
       </c>
       <c r="H5">
-        <v>0.5473783894838249</v>
+        <v>1.144880893753651</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3391556760643937</v>
+        <v>0.331395858851252</v>
       </c>
       <c r="K5">
-        <v>0.9508128497276971</v>
+        <v>0.4795335094514996</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.033490436603667</v>
+        <v>1.955274397846221</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8896981988041546</v>
+        <v>0.5072484276242903</v>
       </c>
       <c r="C6">
-        <v>0.1291594594308378</v>
+        <v>0.0426011908830759</v>
       </c>
       <c r="D6">
-        <v>0.2065376641779011</v>
+        <v>0.2097130931100963</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.11976266131208</v>
+        <v>1.899915964721259</v>
       </c>
       <c r="G6">
-        <v>0.7421661477326609</v>
+        <v>1.169475805081802</v>
       </c>
       <c r="H6">
-        <v>0.5469725780541239</v>
+        <v>1.145088246786273</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3371201263357051</v>
+        <v>0.3309610024711276</v>
       </c>
       <c r="K6">
-        <v>0.9439052960664753</v>
+        <v>0.4776791738239012</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.035616758763993</v>
+        <v>1.956159921695708</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.934277986898195</v>
+        <v>0.5190166568040127</v>
       </c>
       <c r="C7">
-        <v>0.1356791887332491</v>
+        <v>0.04444679168973664</v>
       </c>
       <c r="D7">
-        <v>0.2159965830504831</v>
+        <v>0.2118635471103261</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.1394551663643</v>
+        <v>1.901021541040592</v>
       </c>
       <c r="G7">
-        <v>0.7534735940383399</v>
+        <v>1.169875210347385</v>
       </c>
       <c r="H7">
-        <v>0.5498707010930985</v>
+        <v>1.143693456473827</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3512941825711948</v>
+        <v>0.3339981062834454</v>
       </c>
       <c r="K7">
-        <v>0.9919064649752158</v>
+        <v>0.4905705977363652</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.02097566681358</v>
+        <v>1.950070119235374</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.132602139020548</v>
+        <v>0.5715270025814334</v>
       </c>
       <c r="C8">
-        <v>0.1645948094121934</v>
+        <v>0.05260538800790471</v>
       </c>
       <c r="D8">
-        <v>0.2581853978699939</v>
+        <v>0.2215892778046111</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.231169997747855</v>
+        <v>1.908155353643068</v>
       </c>
       <c r="G8">
-        <v>0.8069857561975908</v>
+        <v>1.173170086267746</v>
       </c>
       <c r="H8">
-        <v>0.5647568888478531</v>
+        <v>1.138638887855478</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.4150550510572373</v>
+        <v>0.3478642675218424</v>
       </c>
       <c r="K8">
-        <v>1.205286290176872</v>
+        <v>0.5479587559967456</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9593571931802707</v>
+        <v>1.924600958727449</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.529180204362575</v>
+        <v>0.6765738234419985</v>
       </c>
       <c r="C9">
-        <v>0.2221037605755782</v>
+        <v>0.06865614875627557</v>
       </c>
       <c r="D9">
-        <v>0.3429534731754273</v>
+        <v>0.2415077624960276</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.430905504287551</v>
+        <v>1.930263973362798</v>
       </c>
       <c r="G9">
-        <v>0.9268570911637539</v>
+        <v>1.185157747726777</v>
       </c>
       <c r="H9">
-        <v>0.6023654781599248</v>
+        <v>1.132682685225546</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.5454714877965614</v>
+        <v>0.3767324746655305</v>
       </c>
       <c r="K9">
-        <v>1.631383061116566</v>
+        <v>0.6622903425867435</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8500113227121773</v>
+        <v>1.879708130977448</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.827211540670106</v>
+        <v>0.7550190161279886</v>
       </c>
       <c r="C10">
-        <v>0.2651451801423406</v>
+        <v>0.08048195361878641</v>
       </c>
       <c r="D10">
-        <v>0.4069170200300505</v>
+        <v>0.2566577326184074</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.592439356363755</v>
+        <v>1.95147612376438</v>
       </c>
       <c r="G10">
-        <v>1.026039915943386</v>
+        <v>1.197355391074325</v>
       </c>
       <c r="H10">
-        <v>0.6360366791523404</v>
+        <v>1.130720791658675</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.6456325016698798</v>
+        <v>0.3989757256897377</v>
       </c>
       <c r="K10">
-        <v>1.951255158505802</v>
+        <v>0.7473884728138955</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7774379132447535</v>
+        <v>1.849809975982371</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.964727172061913</v>
+        <v>0.7909821150369396</v>
       </c>
       <c r="C11">
-        <v>0.2849708661832722</v>
+        <v>0.08586950535922711</v>
       </c>
       <c r="D11">
-        <v>0.4364896492746198</v>
+        <v>0.2636619613549271</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.669787106892798</v>
+        <v>1.962209548121308</v>
       </c>
       <c r="G11">
-        <v>1.074063982979595</v>
+        <v>1.203645380833564</v>
       </c>
       <c r="H11">
-        <v>0.6528880944966176</v>
+        <v>1.130353156005853</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.6924020868098637</v>
+        <v>0.4093219029795421</v>
       </c>
       <c r="K11">
-        <v>2.098779334368317</v>
+        <v>0.7863421293524766</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.7462937990470095</v>
+        <v>1.836879357042129</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.01712364580797</v>
+        <v>0.8046402822871528</v>
       </c>
       <c r="C12">
-        <v>0.2925204222666764</v>
+        <v>0.08791078186575874</v>
       </c>
       <c r="D12">
-        <v>0.4477661749206732</v>
+        <v>0.2663304165589011</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.699691978781431</v>
+        <v>1.966430160636136</v>
       </c>
       <c r="G12">
-        <v>1.092712081424608</v>
+        <v>1.206134160026764</v>
       </c>
       <c r="H12">
-        <v>0.6595102529969381</v>
+        <v>1.130289452861788</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.7103097212435756</v>
+        <v>0.4132726207077155</v>
       </c>
       <c r="K12">
-        <v>2.154979942920789</v>
+        <v>0.8011276144369504</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.7347865132584985</v>
+        <v>1.832079373321875</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.005824061761871</v>
+        <v>0.8016969889326049</v>
       </c>
       <c r="C13">
-        <v>0.2908925098338386</v>
+        <v>0.08747110650367063</v>
       </c>
       <c r="D13">
-        <v>0.4453339404709595</v>
+        <v>0.2657550016536447</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.693223080175031</v>
+        <v>1.965514229992721</v>
       </c>
       <c r="G13">
-        <v>1.088674559191972</v>
+        <v>1.205593397687025</v>
       </c>
       <c r="H13">
-        <v>0.6580729963810938</v>
+        <v>1.130299813359514</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.7064438302760578</v>
+        <v>0.4124203003361373</v>
       </c>
       <c r="K13">
-        <v>2.142860380872833</v>
+        <v>0.7979417613547071</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.7372517848463502</v>
+        <v>1.833108838102845</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.969031140160496</v>
+        <v>0.7921049860224514</v>
       </c>
       <c r="C14">
-        <v>0.2855910906930603</v>
+        <v>0.08603741988258662</v>
       </c>
       <c r="D14">
-        <v>0.4374157538678674</v>
+        <v>0.2638811743382803</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.672234716265038</v>
+        <v>1.962553650681116</v>
       </c>
       <c r="G14">
-        <v>1.075588635497041</v>
+        <v>1.203847990047464</v>
       </c>
       <c r="H14">
-        <v>0.6534279529396372</v>
+        <v>1.130346401485113</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.6938712672860561</v>
+        <v>0.4096462719835614</v>
       </c>
       <c r="K14">
-        <v>2.10339596594585</v>
+        <v>0.7875578483782419</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.745341244120489</v>
+        <v>1.836482523182319</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.94653773762019</v>
+        <v>0.7862347728272994</v>
       </c>
       <c r="C15">
-        <v>0.2823494957191031</v>
+        <v>0.08515939188788479</v>
       </c>
       <c r="D15">
-        <v>0.432576097163917</v>
+        <v>0.2627354966271014</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.659460668936759</v>
+        <v>1.960760545842803</v>
       </c>
       <c r="G15">
-        <v>1.067634744330377</v>
+        <v>1.202792807790601</v>
       </c>
       <c r="H15">
-        <v>0.6506147340167985</v>
+        <v>1.130384773265078</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.6861966036505152</v>
+        <v>0.40795138031649</v>
       </c>
       <c r="K15">
-        <v>2.079268148729085</v>
+        <v>0.7812018984486144</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.7503341021014691</v>
+        <v>1.838561583414403</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.818267222600099</v>
+        <v>0.752674315268365</v>
       </c>
       <c r="C16">
-        <v>0.2638550265072723</v>
+        <v>0.0801300229466051</v>
       </c>
       <c r="D16">
-        <v>0.4049947501495978</v>
+        <v>0.2562022469205942</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.587467213769258</v>
+        <v>1.95079650011327</v>
       </c>
       <c r="G16">
-        <v>1.022963619342136</v>
+        <v>1.196959267159613</v>
       </c>
       <c r="H16">
-        <v>0.6349679641496806</v>
+        <v>1.130755382111005</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.6426022330580139</v>
+        <v>0.3983041685789885</v>
       </c>
       <c r="K16">
-        <v>1.941658528628693</v>
+        <v>0.7448476113870299</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.7795123358285636</v>
+        <v>1.850668524396564</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.740103887033058</v>
+        <v>0.7321570809357922</v>
       </c>
       <c r="C17">
-        <v>0.2525767820994957</v>
+        <v>0.07704669046786705</v>
       </c>
       <c r="D17">
-        <v>0.3882028329691423</v>
+        <v>0.2522230621713675</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.544331988207261</v>
+        <v>1.944961660944088</v>
       </c>
       <c r="G17">
-        <v>0.9963339907653648</v>
+        <v>1.193570643291068</v>
       </c>
       <c r="H17">
-        <v>0.6257759939661867</v>
+        <v>1.131117191429311</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.6161834714728371</v>
+        <v>0.392444294691046</v>
       </c>
       <c r="K17">
-        <v>1.857787118086833</v>
+        <v>0.7226072735617493</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.7979030793279023</v>
+        <v>1.858267527028296</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.695326162650446</v>
+        <v>0.7203822908490736</v>
       </c>
       <c r="C18">
-        <v>0.2461125491668383</v>
+        <v>0.07527398671498986</v>
       </c>
       <c r="D18">
-        <v>0.3785886756189143</v>
+        <v>0.2499449265843907</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.519881718975768</v>
+        <v>1.941707624482532</v>
       </c>
       <c r="G18">
-        <v>0.9812878964224012</v>
+        <v>1.191691345004216</v>
       </c>
       <c r="H18">
-        <v>0.6206321074977836</v>
+        <v>1.131374692376951</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.6011000617822333</v>
+        <v>0.3890952671336834</v>
       </c>
       <c r="K18">
-        <v>1.809732900044594</v>
+        <v>0.7098380198815164</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8086558204856757</v>
+        <v>1.862701343474569</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.680194808381771</v>
+        <v>0.7164000534678507</v>
       </c>
       <c r="C19">
-        <v>0.2439275802654919</v>
+        <v>0.07467390848388789</v>
       </c>
       <c r="D19">
-        <v>0.3753407821793644</v>
+        <v>0.2491754091006158</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.511663385515789</v>
+        <v>1.940623376709652</v>
       </c>
       <c r="G19">
-        <v>0.9762387201600973</v>
+        <v>1.191067016864196</v>
       </c>
       <c r="H19">
-        <v>0.6189144633073624</v>
+        <v>1.131470360671031</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.5960116235936397</v>
+        <v>0.3879650188349757</v>
       </c>
       <c r="K19">
-        <v>1.793493218024707</v>
+        <v>0.7055184930694622</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.812326042311561</v>
+        <v>1.864213384444312</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.748405601142593</v>
+        <v>0.7343384678101188</v>
       </c>
       <c r="C20">
-        <v>0.253774973497741</v>
+        <v>0.07737483920418242</v>
       </c>
       <c r="D20">
-        <v>0.3899857287675559</v>
+        <v>0.2526455579939864</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.548886139082938</v>
+        <v>1.945572230334776</v>
       </c>
       <c r="G20">
-        <v>0.9991404469923708</v>
+        <v>1.193924147131199</v>
       </c>
       <c r="H20">
-        <v>0.6267395442965835</v>
+        <v>1.131073563424778</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.6189840418053336</v>
+        <v>0.3930658708729027</v>
       </c>
       <c r="K20">
-        <v>1.86669575438404</v>
+        <v>0.7249724374190407</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.7959271334035947</v>
+        <v>1.857452071252197</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.979829001449133</v>
+        <v>0.7949213137420656</v>
       </c>
       <c r="C21">
-        <v>0.2871470500972464</v>
+        <v>0.08645849789851923</v>
       </c>
       <c r="D21">
-        <v>0.439739318612169</v>
+        <v>0.264431126226043</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.678382319894794</v>
+        <v>1.963419006276283</v>
       </c>
       <c r="G21">
-        <v>1.079419362593271</v>
+        <v>1.20435775495811</v>
       </c>
       <c r="H21">
-        <v>0.6547856063351674</v>
+        <v>1.130330667698786</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.6975585879978468</v>
+        <v>0.4104601790339188</v>
       </c>
       <c r="K21">
-        <v>2.114978095758829</v>
+        <v>0.7906069186529407</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.7429572566396843</v>
+        <v>1.835488967947683</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.132979100552177</v>
+        <v>0.8347471213238009</v>
       </c>
       <c r="C22">
-        <v>0.3092059876836402</v>
+        <v>0.09240176051008575</v>
       </c>
       <c r="D22">
-        <v>0.4727160120806957</v>
+        <v>0.2722275249224992</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.766631390304909</v>
+        <v>1.975992872680763</v>
       </c>
       <c r="G22">
-        <v>1.13460534027746</v>
+        <v>1.211799941059411</v>
       </c>
       <c r="H22">
-        <v>0.6745302037446379</v>
+        <v>1.130285307372787</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.7500724894375708</v>
+        <v>0.4220198641047688</v>
       </c>
       <c r="K22">
-        <v>2.27923073425805</v>
+        <v>0.8337043034274245</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.7100164918089433</v>
+        <v>1.821697731369717</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.051050662243426</v>
+        <v>0.8134702465914643</v>
       </c>
       <c r="C23">
-        <v>0.2974076298783359</v>
+        <v>0.089229132852779</v>
       </c>
       <c r="D23">
-        <v>0.4550702289869264</v>
+        <v>0.2680578733359198</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.719179390882275</v>
+        <v>1.969198623924939</v>
       </c>
       <c r="G23">
-        <v>1.104886929483982</v>
+        <v>1.207770778697679</v>
       </c>
       <c r="H23">
-        <v>0.6638554924701054</v>
+        <v>1.130269227856132</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.7219302241842342</v>
+        <v>0.4158326823346812</v>
       </c>
       <c r="K23">
-        <v>2.191367655870465</v>
+        <v>0.8106840607281924</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.7274378732126152</v>
+        <v>1.829006803848152</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.744651902872135</v>
+        <v>0.7333521978669921</v>
       </c>
       <c r="C24">
-        <v>0.2532332100501549</v>
+        <v>0.07722648333118798</v>
       </c>
       <c r="D24">
-        <v>0.3891795585174123</v>
+        <v>0.2524545178802668</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.546826125611517</v>
+        <v>1.945295878900794</v>
       </c>
       <c r="G24">
-        <v>0.9978708302983961</v>
+        <v>1.193764113546735</v>
       </c>
       <c r="H24">
-        <v>0.6263034864549581</v>
+        <v>1.131093133476099</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.6177175783894597</v>
+        <v>0.3927847943328544</v>
       </c>
       <c r="K24">
-        <v>1.862667650804411</v>
+        <v>0.7239030938305575</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.7968199002610064</v>
+        <v>1.85782053618632</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.420878459772865</v>
+        <v>0.6479335349488338</v>
       </c>
       <c r="C25">
-        <v>0.206430542615891</v>
+        <v>0.06430827045370791</v>
       </c>
       <c r="D25">
-        <v>0.3197598442827712</v>
+        <v>0.2360286884893412</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.374480607549671</v>
+        <v>1.923411808069758</v>
       </c>
       <c r="G25">
-        <v>0.8926321391940348</v>
+        <v>1.181320936575545</v>
       </c>
       <c r="H25">
-        <v>0.5912008303127578</v>
+        <v>1.133870241899615</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.5095097156463027</v>
+        <v>0.3687421587036397</v>
       </c>
       <c r="K25">
-        <v>1.515081045468946</v>
+        <v>0.6311680639998656</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.8782878018507425</v>
+        <v>1.891311495463974</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_37/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_37/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.585894948492836</v>
+        <v>1.186788191076545</v>
       </c>
       <c r="C2">
-        <v>0.05481939930005808</v>
+        <v>0.1724737971605492</v>
       </c>
       <c r="D2">
-        <v>0.2242817457523358</v>
+        <v>0.2697389801093095</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.910637016552201</v>
+        <v>1.25727397408879</v>
       </c>
       <c r="G2">
-        <v>1.174436044363546</v>
+        <v>0.8224264356664008</v>
       </c>
       <c r="H2">
-        <v>1.137536967554624</v>
+        <v>0.569328661492861</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.3517343430940798</v>
+        <v>0.4326587554467238</v>
       </c>
       <c r="K2">
-        <v>0.5636292628394983</v>
+        <v>1.26354601231759</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.918041824904009</v>
+        <v>0.9434130616650869</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5443818955349968</v>
+        <v>1.030166349638023</v>
       </c>
       <c r="C3">
-        <v>0.04840214020775591</v>
+        <v>0.1496763691210106</v>
       </c>
       <c r="D3">
-        <v>0.216537183565066</v>
+        <v>0.2363739731339081</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.904055078749934</v>
+        <v>1.183006180436465</v>
       </c>
       <c r="G3">
-        <v>1.171183168931677</v>
+        <v>0.7787261504603151</v>
       </c>
       <c r="H3">
-        <v>1.141032829470376</v>
+        <v>0.5566846081636783</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3406371280884315</v>
+        <v>0.3819848909356836</v>
       </c>
       <c r="K3">
-        <v>0.5183171290006499</v>
+        <v>1.095105186229603</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.937447975651221</v>
+        <v>0.9905066898881181</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5191546769189301</v>
+        <v>0.934800417768173</v>
       </c>
       <c r="C4">
-        <v>0.04446839529647661</v>
+        <v>0.1357555446776644</v>
       </c>
       <c r="D4">
-        <v>0.2118888394106904</v>
+        <v>0.2161074906854878</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.901035710885026</v>
+        <v>1.139688114421915</v>
       </c>
       <c r="G4">
-        <v>1.169880721440464</v>
+        <v>0.7536077972899307</v>
       </c>
       <c r="H4">
-        <v>1.143677737759958</v>
+        <v>0.5499057216316743</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3340338975760204</v>
+        <v>0.3514606555755933</v>
       </c>
       <c r="K4">
-        <v>0.4907217174864797</v>
+        <v>0.9924689007656013</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.949999629008044</v>
+        <v>1.020805951524846</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5089404865562699</v>
+        <v>0.8961125107257146</v>
       </c>
       <c r="C5">
-        <v>0.04286700172465885</v>
+        <v>0.1300980628731878</v>
       </c>
       <c r="D5">
-        <v>0.2100215301519199</v>
+        <v>0.2078980293005372</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.900062121247714</v>
+        <v>1.122573150277645</v>
       </c>
       <c r="G5">
-        <v>1.169524435617362</v>
+        <v>0.7437752469434997</v>
       </c>
       <c r="H5">
-        <v>1.144880893753651</v>
+        <v>0.5473783894838391</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.331395858851252</v>
+        <v>0.3391556760644505</v>
       </c>
       <c r="K5">
-        <v>0.4795335094514996</v>
+        <v>0.9508128497276971</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.955274397846221</v>
+        <v>1.03349043660376</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5072484276242903</v>
+        <v>0.8896981988040977</v>
       </c>
       <c r="C6">
-        <v>0.0426011908830759</v>
+        <v>0.1291594594307668</v>
       </c>
       <c r="D6">
-        <v>0.2097130931100963</v>
+        <v>0.2065376641780006</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.899915964721259</v>
+        <v>1.119762661312109</v>
       </c>
       <c r="G6">
-        <v>1.169475805081802</v>
+        <v>0.7421661477326325</v>
       </c>
       <c r="H6">
-        <v>1.145088246786273</v>
+        <v>0.5469725780540244</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3309610024711276</v>
+        <v>0.3371201263356198</v>
       </c>
       <c r="K6">
-        <v>0.4776791738239012</v>
+        <v>0.9439052960664469</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.956159921695708</v>
+        <v>1.035616758763993</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5190166568040127</v>
+        <v>0.934277986898195</v>
       </c>
       <c r="C7">
-        <v>0.04444679168973664</v>
+        <v>0.1356791887336044</v>
       </c>
       <c r="D7">
-        <v>0.2118635471103261</v>
+        <v>0.2159965830505257</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.901021541040592</v>
+        <v>1.139455166364314</v>
       </c>
       <c r="G7">
-        <v>1.169875210347385</v>
+        <v>0.7534735940383399</v>
       </c>
       <c r="H7">
-        <v>1.143693456473827</v>
+        <v>0.5498707010932122</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3339981062834454</v>
+        <v>0.3512941825711948</v>
       </c>
       <c r="K7">
-        <v>0.4905705977363652</v>
+        <v>0.991906464975159</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.950070119235374</v>
+        <v>1.020975666813637</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5715270025814334</v>
+        <v>1.132602139020406</v>
       </c>
       <c r="C8">
-        <v>0.05260538800790471</v>
+        <v>0.1645948094120655</v>
       </c>
       <c r="D8">
-        <v>0.2215892778046111</v>
+        <v>0.2581853978700934</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.908155353643068</v>
+        <v>1.231169997747855</v>
       </c>
       <c r="G8">
-        <v>1.173170086267746</v>
+        <v>0.8069857561976903</v>
       </c>
       <c r="H8">
-        <v>1.138638887855478</v>
+        <v>0.5647568888477252</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.3478642675218424</v>
+        <v>0.415055051057081</v>
       </c>
       <c r="K8">
-        <v>0.5479587559967456</v>
+        <v>1.205286290176758</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.924600958727449</v>
+        <v>0.9593571931802067</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6765738234419985</v>
+        <v>1.52918020436266</v>
       </c>
       <c r="C9">
-        <v>0.06865614875627557</v>
+        <v>0.2221037605757061</v>
       </c>
       <c r="D9">
-        <v>0.2415077624960276</v>
+        <v>0.3429534731757116</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.930263973362798</v>
+        <v>1.430905504287551</v>
       </c>
       <c r="G9">
-        <v>1.185157747726777</v>
+        <v>0.9268570911636687</v>
       </c>
       <c r="H9">
-        <v>1.132682685225546</v>
+        <v>0.6023654781599106</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.3767324746655305</v>
+        <v>0.5454714877965756</v>
       </c>
       <c r="K9">
-        <v>0.6622903425867435</v>
+        <v>1.631383061116537</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.879708130977448</v>
+        <v>0.850011322712195</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7550190161279886</v>
+        <v>1.827211540670021</v>
       </c>
       <c r="C10">
-        <v>0.08048195361878641</v>
+        <v>0.2651451801423264</v>
       </c>
       <c r="D10">
-        <v>0.2566577326184074</v>
+        <v>0.4069170200300221</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.95147612376438</v>
+        <v>1.592439356363698</v>
       </c>
       <c r="G10">
-        <v>1.197355391074325</v>
+        <v>1.026039915943301</v>
       </c>
       <c r="H10">
-        <v>1.130720791658675</v>
+        <v>0.6360366791523262</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3989757256897377</v>
+        <v>0.6456325016698514</v>
       </c>
       <c r="K10">
-        <v>0.7473884728138955</v>
+        <v>1.951255158505745</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.849809975982371</v>
+        <v>0.7774379132446896</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7909821150369396</v>
+        <v>1.96472717206197</v>
       </c>
       <c r="C11">
-        <v>0.08586950535922711</v>
+        <v>0.2849708661830448</v>
       </c>
       <c r="D11">
-        <v>0.2636619613549271</v>
+        <v>0.4364896492745629</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.962209548121308</v>
+        <v>1.669787106892798</v>
       </c>
       <c r="G11">
-        <v>1.203645380833564</v>
+        <v>1.074063982979581</v>
       </c>
       <c r="H11">
-        <v>1.130353156005853</v>
+        <v>0.6528880944966176</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.4093219029795421</v>
+        <v>0.6924020868098353</v>
       </c>
       <c r="K11">
-        <v>0.7863421293524766</v>
+        <v>2.098779334368345</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.836879357042129</v>
+        <v>0.7462937990470024</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.8046402822871528</v>
+        <v>2.017123645808084</v>
       </c>
       <c r="C12">
-        <v>0.08791078186575874</v>
+        <v>0.292520422266648</v>
       </c>
       <c r="D12">
-        <v>0.2663304165589011</v>
+        <v>0.4477661749206163</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.966430160636136</v>
+        <v>1.699691978781431</v>
       </c>
       <c r="G12">
-        <v>1.206134160026764</v>
+        <v>1.092712081424636</v>
       </c>
       <c r="H12">
-        <v>1.130289452861788</v>
+        <v>0.6595102529969523</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.4132726207077155</v>
+        <v>0.7103097212435472</v>
       </c>
       <c r="K12">
-        <v>0.8011276144369504</v>
+        <v>2.154979942920704</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.832079373321875</v>
+        <v>0.7347865132585198</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.8016969889326049</v>
+        <v>2.005824061761956</v>
       </c>
       <c r="C13">
-        <v>0.08747110650367063</v>
+        <v>0.2908925098336965</v>
       </c>
       <c r="D13">
-        <v>0.2657550016536447</v>
+        <v>0.4453339404709595</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.965514229992721</v>
+        <v>1.693223080175045</v>
       </c>
       <c r="G13">
-        <v>1.205593397687025</v>
+        <v>1.088674559191986</v>
       </c>
       <c r="H13">
-        <v>1.130299813359514</v>
+        <v>0.6580729963810938</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4124203003361373</v>
+        <v>0.7064438302760863</v>
       </c>
       <c r="K13">
-        <v>0.7979417613547071</v>
+        <v>2.142860380872861</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.833108838102845</v>
+        <v>0.7372517848463573</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7921049860224514</v>
+        <v>1.969031140160666</v>
       </c>
       <c r="C14">
-        <v>0.08603741988258662</v>
+        <v>0.2855910906933161</v>
       </c>
       <c r="D14">
-        <v>0.2638811743382803</v>
+        <v>0.4374157538681231</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.962553650681116</v>
+        <v>1.672234716265024</v>
       </c>
       <c r="G14">
-        <v>1.203847990047464</v>
+        <v>1.075588635496985</v>
       </c>
       <c r="H14">
-        <v>1.130346401485113</v>
+        <v>0.6534279529397651</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.4096462719835614</v>
+        <v>0.6938712672861129</v>
       </c>
       <c r="K14">
-        <v>0.7875578483782419</v>
+        <v>2.103395965945936</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.836482523182319</v>
+        <v>0.7453412441204748</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7862347728272994</v>
+        <v>1.946537737620275</v>
       </c>
       <c r="C15">
-        <v>0.08515939188788479</v>
+        <v>0.2823494957189894</v>
       </c>
       <c r="D15">
-        <v>0.2627354966271014</v>
+        <v>0.4325760971638601</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.960760545842803</v>
+        <v>1.659460668936745</v>
       </c>
       <c r="G15">
-        <v>1.202792807790601</v>
+        <v>1.067634744330334</v>
       </c>
       <c r="H15">
-        <v>1.130384773265078</v>
+        <v>0.6506147340168127</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.40795138031649</v>
+        <v>0.6861966036505294</v>
       </c>
       <c r="K15">
-        <v>0.7812018984486144</v>
+        <v>2.079268148729142</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.838561583414403</v>
+        <v>0.7503341021014478</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.752674315268365</v>
+        <v>1.818267222600326</v>
       </c>
       <c r="C16">
-        <v>0.0801300229466051</v>
+        <v>0.2638550265074002</v>
       </c>
       <c r="D16">
-        <v>0.2562022469205942</v>
+        <v>0.4049947501495978</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.95079650011327</v>
+        <v>1.587467213769273</v>
       </c>
       <c r="G16">
-        <v>1.196959267159613</v>
+        <v>1.022963619342192</v>
       </c>
       <c r="H16">
-        <v>1.130755382111005</v>
+        <v>0.6349679641495811</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3983041685789885</v>
+        <v>0.6426022330579855</v>
       </c>
       <c r="K16">
-        <v>0.7448476113870299</v>
+        <v>1.94165852862875</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.850668524396564</v>
+        <v>0.7795123358286133</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7321570809357922</v>
+        <v>1.740103887033115</v>
       </c>
       <c r="C17">
-        <v>0.07704669046786705</v>
+        <v>0.2525767820995952</v>
       </c>
       <c r="D17">
-        <v>0.2522230621713675</v>
+        <v>0.3882028329691138</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.944961660944088</v>
+        <v>1.544331988207247</v>
       </c>
       <c r="G17">
-        <v>1.193570643291068</v>
+        <v>0.9963339907653648</v>
       </c>
       <c r="H17">
-        <v>1.131117191429311</v>
+        <v>0.625775993966073</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.392444294691046</v>
+        <v>0.6161834714728514</v>
       </c>
       <c r="K17">
-        <v>0.7226072735617493</v>
+        <v>1.857787118086918</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.858267527028296</v>
+        <v>0.7979030793279662</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7203822908490736</v>
+        <v>1.695326162650417</v>
       </c>
       <c r="C18">
-        <v>0.07527398671498986</v>
+        <v>0.2461125491667389</v>
       </c>
       <c r="D18">
-        <v>0.2499449265843907</v>
+        <v>0.3785886756189143</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.941707624482532</v>
+        <v>1.519881718975768</v>
       </c>
       <c r="G18">
-        <v>1.191691345004216</v>
+        <v>0.9812878964223728</v>
       </c>
       <c r="H18">
-        <v>1.131374692376951</v>
+        <v>0.6206321074977978</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3890952671336834</v>
+        <v>0.6011000617822901</v>
       </c>
       <c r="K18">
-        <v>0.7098380198815164</v>
+        <v>1.809732900044622</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.862701343474569</v>
+        <v>0.8086558204857539</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7164000534678507</v>
+        <v>1.680194808381884</v>
       </c>
       <c r="C19">
-        <v>0.07467390848388789</v>
+        <v>0.2439275802655061</v>
       </c>
       <c r="D19">
-        <v>0.2491754091006158</v>
+        <v>0.3753407821794497</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.940623376709652</v>
+        <v>1.511663385515789</v>
       </c>
       <c r="G19">
-        <v>1.191067016864196</v>
+        <v>0.9762387201601257</v>
       </c>
       <c r="H19">
-        <v>1.131470360671031</v>
+        <v>0.6189144633072345</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3879650188349757</v>
+        <v>0.5960116235937107</v>
       </c>
       <c r="K19">
-        <v>0.7055184930694622</v>
+        <v>1.793493218024764</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.864213384444312</v>
+        <v>0.812326042311561</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7343384678101188</v>
+        <v>1.748405601142764</v>
       </c>
       <c r="C20">
-        <v>0.07737483920418242</v>
+        <v>0.2537749734978547</v>
       </c>
       <c r="D20">
-        <v>0.2526455579939864</v>
+        <v>0.3899857287673854</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.945572230334776</v>
+        <v>1.548886139082953</v>
       </c>
       <c r="G20">
-        <v>1.193924147131199</v>
+        <v>0.9991404469924134</v>
       </c>
       <c r="H20">
-        <v>1.131073563424778</v>
+        <v>0.6267395442965835</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3930658708729027</v>
+        <v>0.618984041805362</v>
       </c>
       <c r="K20">
-        <v>0.7249724374190407</v>
+        <v>1.866695754383983</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.857452071252197</v>
+        <v>0.7959271334036018</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7949213137420656</v>
+        <v>1.979829001449048</v>
       </c>
       <c r="C21">
-        <v>0.08645849789851923</v>
+        <v>0.2871470500972464</v>
       </c>
       <c r="D21">
-        <v>0.264431126226043</v>
+        <v>0.4397393186119984</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.963419006276283</v>
+        <v>1.67838231989478</v>
       </c>
       <c r="G21">
-        <v>1.20435775495811</v>
+        <v>1.079419362593256</v>
       </c>
       <c r="H21">
-        <v>1.130330667698786</v>
+        <v>0.6547856063350537</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.4104601790339188</v>
+        <v>0.6975585879977473</v>
       </c>
       <c r="K21">
-        <v>0.7906069186529407</v>
+        <v>2.114978095758801</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.835488967947683</v>
+        <v>0.7429572566396274</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.8347471213238009</v>
+        <v>2.132979100552234</v>
       </c>
       <c r="C22">
-        <v>0.09240176051008575</v>
+        <v>0.3092059876837823</v>
       </c>
       <c r="D22">
-        <v>0.2722275249224992</v>
+        <v>0.4727160120808094</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.975992872680763</v>
+        <v>1.766631390304909</v>
       </c>
       <c r="G22">
-        <v>1.211799941059411</v>
+        <v>1.134605340277403</v>
       </c>
       <c r="H22">
-        <v>1.130285307372787</v>
+        <v>0.6745302037446379</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.4220198641047688</v>
+        <v>0.7500724894376276</v>
       </c>
       <c r="K22">
-        <v>0.8337043034274245</v>
+        <v>2.279230734258022</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.821697731369717</v>
+        <v>0.7100164918089433</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.8134702465914643</v>
+        <v>2.05105066224337</v>
       </c>
       <c r="C23">
-        <v>0.089229132852779</v>
+        <v>0.2974076298784212</v>
       </c>
       <c r="D23">
-        <v>0.2680578733359198</v>
+        <v>0.4550702289868411</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.969198623924939</v>
+        <v>1.71917939088226</v>
       </c>
       <c r="G23">
-        <v>1.207770778697679</v>
+        <v>1.104886929483968</v>
       </c>
       <c r="H23">
-        <v>1.130269227856132</v>
+        <v>0.6638554924701054</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.4158326823346812</v>
+        <v>0.7219302241843337</v>
       </c>
       <c r="K23">
-        <v>0.8106840607281924</v>
+        <v>2.191367655870522</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.829006803848152</v>
+        <v>0.7274378732126152</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7333521978669921</v>
+        <v>1.744651902871936</v>
       </c>
       <c r="C24">
-        <v>0.07722648333118798</v>
+        <v>0.2532332100499133</v>
       </c>
       <c r="D24">
-        <v>0.2524545178802668</v>
+        <v>0.3891795585174975</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.945295878900794</v>
+        <v>1.546826125611489</v>
       </c>
       <c r="G24">
-        <v>1.193764113546735</v>
+        <v>0.9978708302983819</v>
       </c>
       <c r="H24">
-        <v>1.131093133476099</v>
+        <v>0.6263034864549581</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3927847943328544</v>
+        <v>0.6177175783894455</v>
       </c>
       <c r="K24">
-        <v>0.7239030938305575</v>
+        <v>1.86266765080444</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.85782053618632</v>
+        <v>0.7968199002610206</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6479335349488338</v>
+        <v>1.420878459772723</v>
       </c>
       <c r="C25">
-        <v>0.06430827045370791</v>
+        <v>0.2064305426156352</v>
       </c>
       <c r="D25">
-        <v>0.2360286884893412</v>
+        <v>0.3197598442827712</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.923411808069758</v>
+        <v>1.374480607549671</v>
       </c>
       <c r="G25">
-        <v>1.181320936575545</v>
+        <v>0.892632139194049</v>
       </c>
       <c r="H25">
-        <v>1.133870241899615</v>
+        <v>0.5912008303126441</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.3687421587036397</v>
+        <v>0.5095097156464163</v>
       </c>
       <c r="K25">
-        <v>0.6311680639998656</v>
+        <v>1.515081045468918</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.891311495463974</v>
+        <v>0.8782878018507319</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_37/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_37/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.186788191076545</v>
+        <v>3.395353114254362</v>
       </c>
       <c r="C2">
-        <v>0.1724737971605492</v>
+        <v>0.5611260650817087</v>
       </c>
       <c r="D2">
-        <v>0.2697389801093095</v>
+        <v>0.1253489919116788</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.25727397408879</v>
+        <v>0.5016646248998171</v>
       </c>
       <c r="G2">
-        <v>0.8224264356664008</v>
+        <v>0.2701619461251141</v>
       </c>
       <c r="H2">
-        <v>0.569328661492861</v>
+        <v>0.001156586004492977</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.000930114178652186</v>
       </c>
       <c r="J2">
-        <v>0.4326587554467238</v>
+        <v>0.2579640166999795</v>
       </c>
       <c r="K2">
-        <v>1.26354601231759</v>
+        <v>0.2403292281351277</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.08753729594269721</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9434130616650869</v>
+        <v>0.411969763572003</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1.061249122411482</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.030166349638023</v>
+        <v>2.960228797503589</v>
       </c>
       <c r="C3">
-        <v>0.1496763691210106</v>
+        <v>0.5088675685991291</v>
       </c>
       <c r="D3">
-        <v>0.2363739731339081</v>
+        <v>0.1166006388132956</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.183006180436465</v>
+        <v>0.4900736289292027</v>
       </c>
       <c r="G3">
-        <v>0.7787261504603151</v>
+        <v>0.2632630679864576</v>
       </c>
       <c r="H3">
-        <v>0.5566846081636783</v>
+        <v>0.002165788684903358</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.001586874413511463</v>
       </c>
       <c r="J3">
-        <v>0.3819848909356836</v>
+        <v>0.259504497234758</v>
       </c>
       <c r="K3">
-        <v>1.095105186229603</v>
+        <v>0.2512311665448479</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.08611632737795594</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9905066898881181</v>
+        <v>0.365620544936732</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1.049549571845375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.934800417768173</v>
+        <v>2.692480278174401</v>
       </c>
       <c r="C4">
-        <v>0.1357555446776644</v>
+        <v>0.4769490088820589</v>
       </c>
       <c r="D4">
-        <v>0.2161074906854878</v>
+        <v>0.1112598377778866</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.139688114421915</v>
+        <v>0.4835120749917508</v>
       </c>
       <c r="G4">
-        <v>0.7536077972899307</v>
+        <v>0.2594675949224197</v>
       </c>
       <c r="H4">
-        <v>0.5499057216316743</v>
+        <v>0.002971424487611118</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.002183449044675712</v>
       </c>
       <c r="J4">
-        <v>0.3514606555755933</v>
+        <v>0.260753546375895</v>
       </c>
       <c r="K4">
-        <v>0.9924689007656013</v>
+        <v>0.2583113412643652</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.08520416112770723</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.020805951524846</v>
+        <v>0.3372306166293981</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1.043926670895445</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8961125107257146</v>
+        <v>2.583201809819457</v>
       </c>
       <c r="C5">
-        <v>0.1300980628731878</v>
+        <v>0.4646959910350859</v>
       </c>
       <c r="D5">
-        <v>0.2078980293005372</v>
+        <v>0.1091007680175125</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.122573150277645</v>
+        <v>0.4805463312652307</v>
       </c>
       <c r="G5">
-        <v>0.7437752469434997</v>
+        <v>0.257683663623439</v>
       </c>
       <c r="H5">
-        <v>0.5473783894838391</v>
+        <v>0.003346140892838689</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.002545633984730067</v>
       </c>
       <c r="J5">
-        <v>0.3391556760644505</v>
+        <v>0.2611550307254262</v>
       </c>
       <c r="K5">
-        <v>0.9508128497276971</v>
+        <v>0.2610799168403499</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.08479328333331981</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.03349043660376</v>
+        <v>0.3258996839603299</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1.040905048343959</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8896981988040977</v>
+        <v>2.56503166073162</v>
       </c>
       <c r="C6">
-        <v>0.1291594594307668</v>
+        <v>0.4635415147044171</v>
       </c>
       <c r="D6">
-        <v>0.2065376641780006</v>
+        <v>0.1087550963914552</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.119762661312109</v>
+        <v>0.4795409677377052</v>
       </c>
       <c r="G6">
-        <v>0.7421661477326325</v>
+        <v>0.2569749416417437</v>
       </c>
       <c r="H6">
-        <v>0.5469725780540244</v>
+        <v>0.003413138877771005</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.00270483016186418</v>
       </c>
       <c r="J6">
-        <v>0.3371201263356198</v>
+        <v>0.261004359571082</v>
       </c>
       <c r="K6">
-        <v>0.9439052960664469</v>
+        <v>0.2612883084288029</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.0846891608263669</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.035616758763993</v>
+        <v>0.324293072389537</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1.039073422209199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.934277986898195</v>
+        <v>2.690965285044285</v>
       </c>
       <c r="C7">
-        <v>0.1356791887336044</v>
+        <v>0.4791895921904654</v>
       </c>
       <c r="D7">
-        <v>0.2159965830505257</v>
+        <v>0.1112647594383063</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.139455166364314</v>
+        <v>0.482050533978196</v>
       </c>
       <c r="G7">
-        <v>0.7534735940383399</v>
+        <v>0.2583002309616376</v>
       </c>
       <c r="H7">
-        <v>0.5498707010932122</v>
+        <v>0.00298157262232851</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.002435526823160394</v>
       </c>
       <c r="J7">
-        <v>0.3512941825711948</v>
+        <v>0.2601544518682175</v>
       </c>
       <c r="K7">
-        <v>0.991906464975159</v>
+        <v>0.2576498503273985</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.08510314442463729</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.020975666813637</v>
+        <v>0.3378276366318573</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1.040195901875023</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.132602139020406</v>
+        <v>3.245373806890314</v>
       </c>
       <c r="C8">
-        <v>0.1645948094120655</v>
+        <v>0.5462954966639302</v>
       </c>
       <c r="D8">
-        <v>0.2581853978700934</v>
+        <v>0.1223716157348136</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.231169997747855</v>
+        <v>0.4956776698423511</v>
       </c>
       <c r="G8">
-        <v>0.8069857561976903</v>
+        <v>0.2661817266174822</v>
       </c>
       <c r="H8">
-        <v>0.5647568888477252</v>
+        <v>0.001469195512373012</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.00141134801209386</v>
       </c>
       <c r="J8">
-        <v>0.415055051057081</v>
+        <v>0.257638216709708</v>
       </c>
       <c r="K8">
-        <v>1.205286290176758</v>
+        <v>0.2430999638180147</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.08693308660548782</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9593571931802067</v>
+        <v>0.3969713734065721</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1.052026873037434</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.52918020436266</v>
+        <v>4.328639641925236</v>
       </c>
       <c r="C9">
-        <v>0.2221037605757061</v>
+        <v>0.675038610922968</v>
       </c>
       <c r="D9">
-        <v>0.3429534731757116</v>
+        <v>0.144358881068726</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.430905504287551</v>
+        <v>0.5295928472852935</v>
       </c>
       <c r="G9">
-        <v>0.9268570911636687</v>
+        <v>0.2874212861406136</v>
       </c>
       <c r="H9">
-        <v>0.6023654781599106</v>
+        <v>7.252670221258306E-05</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.0006736498299675375</v>
       </c>
       <c r="J9">
-        <v>0.5454714877965756</v>
+        <v>0.2562877050377992</v>
       </c>
       <c r="K9">
-        <v>1.631383061116537</v>
+        <v>0.2189892834247278</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.09037994794019433</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.850011322712195</v>
+        <v>0.5122814768011068</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1.094931289307951</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.827211540670021</v>
+        <v>5.122657303920164</v>
       </c>
       <c r="C10">
-        <v>0.2651451801423264</v>
+        <v>0.7786600496831397</v>
       </c>
       <c r="D10">
-        <v>0.4069170200300221</v>
+        <v>0.1579995945734396</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.592439356363698</v>
+        <v>0.548572878301357</v>
       </c>
       <c r="G10">
-        <v>1.026039915943301</v>
+        <v>0.2998798654675383</v>
       </c>
       <c r="H10">
-        <v>0.6360366791523262</v>
+        <v>0.0003085378252252191</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.001400336633185617</v>
       </c>
       <c r="J10">
-        <v>0.6456325016698514</v>
+        <v>0.2540184825033762</v>
       </c>
       <c r="K10">
-        <v>1.951255158505745</v>
+        <v>0.2006081828950599</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.09179782874239795</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7774379132446896</v>
+        <v>0.5828882083460769</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1.117069877863784</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.96472717206197</v>
+        <v>5.480640595541615</v>
       </c>
       <c r="C11">
-        <v>0.2849708661830448</v>
+        <v>0.8908705003494504</v>
       </c>
       <c r="D11">
-        <v>0.4364896492745629</v>
+        <v>0.1413518905056748</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.669787106892798</v>
+        <v>0.4847135265553533</v>
       </c>
       <c r="G11">
-        <v>1.074063982979581</v>
+        <v>0.2605198525193373</v>
       </c>
       <c r="H11">
-        <v>0.6528880944966176</v>
+        <v>0.01888862353213838</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.002231061923001043</v>
       </c>
       <c r="J11">
-        <v>0.6924020868098353</v>
+        <v>0.2299255896560908</v>
       </c>
       <c r="K11">
-        <v>2.098779334368345</v>
+        <v>0.1726716683063625</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.09266034747664875</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.7462937990470024</v>
+        <v>0.4908490647422781</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0.9833721671691364</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.017123645808084</v>
+        <v>5.615086816282712</v>
       </c>
       <c r="C12">
-        <v>0.292520422266648</v>
+        <v>0.9638504559713965</v>
       </c>
       <c r="D12">
-        <v>0.4477661749206163</v>
+        <v>0.1253497841008482</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.699691978781431</v>
+        <v>0.4315159892545353</v>
       </c>
       <c r="G12">
-        <v>1.092712081424636</v>
+        <v>0.2280108014078408</v>
       </c>
       <c r="H12">
-        <v>0.6595102529969523</v>
+        <v>0.05752700334259941</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.002311207693561634</v>
       </c>
       <c r="J12">
-        <v>0.7103097212435472</v>
+        <v>0.2116062204615901</v>
       </c>
       <c r="K12">
-        <v>2.154979942920704</v>
+        <v>0.1567674613594576</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1040262579202569</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.7347865132585198</v>
+        <v>0.4047674206870369</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0.8761616180886591</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.005824061761956</v>
+        <v>5.583896760037817</v>
       </c>
       <c r="C13">
-        <v>0.2908925098336965</v>
+        <v>1.013917695060883</v>
       </c>
       <c r="D13">
-        <v>0.4453339404709595</v>
+        <v>0.1090415571528993</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.693223080175045</v>
+        <v>0.3811288102618775</v>
       </c>
       <c r="G13">
-        <v>1.088674559191986</v>
+        <v>0.1969641169039562</v>
       </c>
       <c r="H13">
-        <v>0.6580729963810938</v>
+        <v>0.1131958936589257</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.00213571328074913</v>
       </c>
       <c r="J13">
-        <v>0.7064438302760863</v>
+        <v>0.1956251294293381</v>
       </c>
       <c r="K13">
-        <v>2.142860380872861</v>
+        <v>0.1478595411465751</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1236151130484764</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.7372517848463573</v>
+        <v>0.3199678729197188</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.7768535685392379</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.969031140160666</v>
+        <v>5.486959633986146</v>
       </c>
       <c r="C14">
-        <v>0.2855910906933161</v>
+        <v>1.039544569340705</v>
       </c>
       <c r="D14">
-        <v>0.4374157538681231</v>
+        <v>0.09773067965405602</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.672234716265024</v>
+        <v>0.3474416359729133</v>
       </c>
       <c r="G14">
-        <v>1.075588635496985</v>
+        <v>0.1760294345887417</v>
       </c>
       <c r="H14">
-        <v>0.6534279529397651</v>
+        <v>0.1624777743861614</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.001991359096749967</v>
       </c>
       <c r="J14">
-        <v>0.6938712672861129</v>
+        <v>0.1855255281650656</v>
       </c>
       <c r="K14">
-        <v>2.103395965945936</v>
+        <v>0.1450612983178265</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1422817897765256</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.7453412441204748</v>
+        <v>0.2629497591235861</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.7112627005567305</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.946537737620275</v>
+        <v>5.427988609599538</v>
       </c>
       <c r="C15">
-        <v>0.2823494957189894</v>
+        <v>1.041441625575828</v>
       </c>
       <c r="D15">
-        <v>0.4325760971638601</v>
+        <v>0.09481722439919338</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.659460668936745</v>
+        <v>0.3391622102911853</v>
       </c>
       <c r="G15">
-        <v>1.067634744330334</v>
+        <v>0.1707444681720389</v>
       </c>
       <c r="H15">
-        <v>0.6506147340168127</v>
+        <v>0.1749596476291231</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.002020413232849627</v>
       </c>
       <c r="J15">
-        <v>0.6861966036505294</v>
+        <v>0.1833211667106482</v>
       </c>
       <c r="K15">
-        <v>2.079268148729142</v>
+        <v>0.1454097888562047</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1471884273885706</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.7503341021014478</v>
+        <v>0.2486634360618325</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.6954068356067893</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.818267222600326</v>
+        <v>5.091530258480816</v>
       </c>
       <c r="C16">
-        <v>0.2638550265074002</v>
+        <v>0.98604981205591</v>
       </c>
       <c r="D16">
-        <v>0.4049947501495978</v>
+        <v>0.09265540540064876</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.587467213769273</v>
+        <v>0.3405831279479372</v>
       </c>
       <c r="G16">
-        <v>1.022963619342192</v>
+        <v>0.1709195206519283</v>
       </c>
       <c r="H16">
-        <v>0.6349679641495811</v>
+        <v>0.1621073964432185</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.001780641127798077</v>
       </c>
       <c r="J16">
-        <v>0.6426022330579855</v>
+        <v>0.1869885647031353</v>
       </c>
       <c r="K16">
-        <v>1.94165852862875</v>
+        <v>0.1540537277472855</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1418261259686844</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.7795123358286133</v>
+        <v>0.2382873255887148</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.7032565395718962</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.740103887033115</v>
+        <v>4.885609193349353</v>
       </c>
       <c r="C17">
-        <v>0.2525767820995952</v>
+        <v>0.9301756782449786</v>
       </c>
       <c r="D17">
-        <v>0.3882028329691138</v>
+        <v>0.09685561276393173</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.544331988207247</v>
+        <v>0.3592979931705287</v>
       </c>
       <c r="G17">
-        <v>0.9963339907653648</v>
+        <v>0.1820407097775814</v>
       </c>
       <c r="H17">
-        <v>0.625775993966073</v>
+        <v>0.1242973334860125</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.001722624729634248</v>
       </c>
       <c r="J17">
-        <v>0.6161834714728514</v>
+        <v>0.195144390080408</v>
       </c>
       <c r="K17">
-        <v>1.857787118086918</v>
+        <v>0.1620550308240274</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1269966272772791</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.7979030793279662</v>
+        <v>0.2595408714527139</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.7437901311816688</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.695326162650417</v>
+        <v>4.768023572367269</v>
       </c>
       <c r="C18">
-        <v>0.2461125491667389</v>
+        <v>0.8666555801514164</v>
       </c>
       <c r="D18">
-        <v>0.3785886756189143</v>
+        <v>0.1075485258993751</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.519881718975768</v>
+        <v>0.3973405384666435</v>
       </c>
       <c r="G18">
-        <v>0.9812878964223728</v>
+        <v>0.2054272788778988</v>
       </c>
       <c r="H18">
-        <v>0.6206321074977978</v>
+        <v>0.07147548382760505</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.001474550695105492</v>
       </c>
       <c r="J18">
-        <v>0.6011000617822901</v>
+        <v>0.2088242514133754</v>
       </c>
       <c r="K18">
-        <v>1.809732900044622</v>
+        <v>0.1720097452650178</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1073090423601251</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8086558204857539</v>
+        <v>0.3141747715035308</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.8219512963227942</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.680194808381884</v>
+        <v>4.729531351510616</v>
       </c>
       <c r="C19">
-        <v>0.2439275802655061</v>
+        <v>0.8092756287199165</v>
       </c>
       <c r="D19">
-        <v>0.3753407821794497</v>
+        <v>0.1236722298110848</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.511663385515789</v>
+        <v>0.4486011964201921</v>
       </c>
       <c r="G19">
-        <v>0.9762387201601257</v>
+        <v>0.2368862234942952</v>
       </c>
       <c r="H19">
-        <v>0.6189144633072345</v>
+        <v>0.02623433906349248</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.00160672517770255</v>
       </c>
       <c r="J19">
-        <v>0.5960116235937107</v>
+        <v>0.2257323088065064</v>
       </c>
       <c r="K19">
-        <v>1.793493218024764</v>
+        <v>0.1843291130486868</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.09285421318476494</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.812326042311561</v>
+        <v>0.399501659203338</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0.924037953567165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.748405601142764</v>
+        <v>4.914047493973271</v>
       </c>
       <c r="C20">
-        <v>0.2537749734978547</v>
+        <v>0.7595003982520723</v>
       </c>
       <c r="D20">
-        <v>0.3899857287673854</v>
+        <v>0.154401314165753</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.548886139082953</v>
+        <v>0.5386715324390465</v>
       </c>
       <c r="G20">
-        <v>0.9991404469924134</v>
+        <v>0.2927062146707016</v>
       </c>
       <c r="H20">
-        <v>0.6267395442965835</v>
+        <v>0.0001516440919737683</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.001883664847118993</v>
       </c>
       <c r="J20">
-        <v>0.618984041805362</v>
+        <v>0.2525608789227007</v>
       </c>
       <c r="K20">
-        <v>1.866695754383983</v>
+        <v>0.2031743164553408</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.09114078387146929</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.7959271334036018</v>
+        <v>0.5660540707549444</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1.098686622755338</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.979829001449048</v>
+        <v>5.523651990078861</v>
       </c>
       <c r="C21">
-        <v>0.2871470500972464</v>
+        <v>0.8276619335933049</v>
       </c>
       <c r="D21">
-        <v>0.4397393186119984</v>
+        <v>0.1691443049376886</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.67838231989478</v>
+        <v>0.5683920108470488</v>
       </c>
       <c r="G21">
-        <v>1.079419362593256</v>
+        <v>0.3120778183566841</v>
       </c>
       <c r="H21">
-        <v>0.6547856063350537</v>
+        <v>0.0004898799593053837</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.002711749253206719</v>
       </c>
       <c r="J21">
-        <v>0.6975585879977473</v>
+        <v>0.2559464803865197</v>
       </c>
       <c r="K21">
-        <v>2.114978095758801</v>
+        <v>0.194120685707011</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.09362495948031757</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.7429572566396274</v>
+        <v>0.6433595895984041</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1.147202544265156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.132979100552234</v>
+        <v>5.922040499882485</v>
       </c>
       <c r="C22">
-        <v>0.3092059876837823</v>
+        <v>0.8725992269932306</v>
       </c>
       <c r="D22">
-        <v>0.4727160120808094</v>
+        <v>0.1773915892737392</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.766631390304909</v>
+        <v>0.5860287141557308</v>
       </c>
       <c r="G22">
-        <v>1.134605340277403</v>
+        <v>0.3241327409107413</v>
       </c>
       <c r="H22">
-        <v>0.6745302037446379</v>
+        <v>0.001029009156403693</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.003208180151180962</v>
       </c>
       <c r="J22">
-        <v>0.7500724894376276</v>
+        <v>0.2579110302582848</v>
       </c>
       <c r="K22">
-        <v>2.279230734258022</v>
+        <v>0.1882234570330557</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.09487648272969373</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.7100164918089433</v>
+        <v>0.6853664306445069</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1.177099114385072</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.05105066224337</v>
+        <v>5.709474762891887</v>
       </c>
       <c r="C23">
-        <v>0.2974076298784212</v>
+        <v>0.8455948604961634</v>
       </c>
       <c r="D23">
-        <v>0.4550702289868411</v>
+        <v>0.172942777108716</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.71917939088226</v>
+        <v>0.5781889472089077</v>
       </c>
       <c r="G23">
-        <v>1.104886929483968</v>
+        <v>0.3189619551644611</v>
       </c>
       <c r="H23">
-        <v>0.6638554924701054</v>
+        <v>0.0007198119847511286</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.002630033400856213</v>
       </c>
       <c r="J23">
-        <v>0.7219302241843337</v>
+        <v>0.2575147708574121</v>
       </c>
       <c r="K23">
-        <v>2.191367655870522</v>
+        <v>0.1920803529849326</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.09430960037400826</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.7274378732126152</v>
+        <v>0.6620206361001095</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1.165186797357819</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.744651902871936</v>
+        <v>4.904465896625254</v>
       </c>
       <c r="C24">
-        <v>0.2532332100499133</v>
+        <v>0.7485944030412668</v>
       </c>
       <c r="D24">
-        <v>0.3891795585174975</v>
+        <v>0.1562592891871901</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.546826125611489</v>
+        <v>0.5474034909440277</v>
       </c>
       <c r="G24">
-        <v>0.9978708302983819</v>
+        <v>0.2985657062606464</v>
       </c>
       <c r="H24">
-        <v>0.6263034864549581</v>
+        <v>4.184435345933046E-05</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.001409123884494434</v>
       </c>
       <c r="J24">
-        <v>0.6177175783894455</v>
+        <v>0.2556856519411994</v>
       </c>
       <c r="K24">
-        <v>1.86266765080444</v>
+        <v>0.2064547748853141</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.09195788479893707</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.7968199002610206</v>
+        <v>0.5753766202746391</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1.117647530505124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.420878459772723</v>
+        <v>4.035824809113365</v>
       </c>
       <c r="C25">
-        <v>0.2064305426156352</v>
+        <v>0.6445052227233816</v>
       </c>
       <c r="D25">
-        <v>0.3197598442827712</v>
+        <v>0.138441753832339</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.374480607549671</v>
+        <v>0.5173410918946786</v>
       </c>
       <c r="G25">
-        <v>0.892632139194049</v>
+        <v>0.2791923739747446</v>
       </c>
       <c r="H25">
-        <v>0.5912008303126441</v>
+        <v>0.0002698424212267403</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.001100201252054234</v>
       </c>
       <c r="J25">
-        <v>0.5095097156464163</v>
+        <v>0.2552981525830589</v>
       </c>
       <c r="K25">
-        <v>1.515081045468918</v>
+        <v>0.2239476721684728</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.08931891466833086</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.8782878018507319</v>
+        <v>0.4823702254708166</v>
       </c>
       <c r="O25">
         <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1.075229908864813</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_37/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_37/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.395353114254362</v>
+        <v>3.400269441010437</v>
       </c>
       <c r="C2">
-        <v>0.5611260650817087</v>
+        <v>0.5639299597076786</v>
       </c>
       <c r="D2">
-        <v>0.1253489919116788</v>
+        <v>0.1255226036453152</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5016646248998171</v>
+        <v>0.4854201506163349</v>
       </c>
       <c r="G2">
-        <v>0.2701619461251141</v>
+        <v>0.2403005222132322</v>
       </c>
       <c r="H2">
-        <v>0.001156586004492977</v>
+        <v>0.0009106552883926256</v>
       </c>
       <c r="I2">
-        <v>0.000930114178652186</v>
+        <v>0.000767130880666933</v>
       </c>
       <c r="J2">
-        <v>0.2579640166999795</v>
+        <v>0.2855271340433774</v>
       </c>
       <c r="K2">
-        <v>0.2403292281351277</v>
+        <v>0.2257247740006996</v>
       </c>
       <c r="L2">
-        <v>0.08753729594269721</v>
+        <v>0.1216472440873186</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.05545246515396318</v>
       </c>
       <c r="N2">
-        <v>0.411969763572003</v>
+        <v>0.08479840184358967</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.4223088686153176</v>
       </c>
       <c r="Q2">
-        <v>1.061249122411482</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.018984654799638</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.960228797503589</v>
+        <v>2.965261855556378</v>
       </c>
       <c r="C3">
-        <v>0.5088675685991291</v>
+        <v>0.5045733999974402</v>
       </c>
       <c r="D3">
-        <v>0.1166006388132956</v>
+        <v>0.1168619689077772</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.4900736289292027</v>
+        <v>0.4757985246871996</v>
       </c>
       <c r="G3">
-        <v>0.2632630679864576</v>
+        <v>0.2354356937598965</v>
       </c>
       <c r="H3">
-        <v>0.002165788684903358</v>
+        <v>0.001759719162919726</v>
       </c>
       <c r="I3">
-        <v>0.001586874413511463</v>
+        <v>0.001186859095806625</v>
       </c>
       <c r="J3">
-        <v>0.259504497234758</v>
+        <v>0.285611340434798</v>
       </c>
       <c r="K3">
-        <v>0.2512311665448479</v>
+        <v>0.2365041624771802</v>
       </c>
       <c r="L3">
-        <v>0.08611632737795594</v>
+        <v>0.1275231870543418</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.0589649484311292</v>
       </c>
       <c r="N3">
-        <v>0.365620544936732</v>
+        <v>0.08355432573997268</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.3745229675718775</v>
       </c>
       <c r="Q3">
-        <v>1.049549571845375</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.011722126671401</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.692480278174401</v>
+        <v>2.6974915382944</v>
       </c>
       <c r="C4">
-        <v>0.4769490088820589</v>
+        <v>0.4684488216293232</v>
       </c>
       <c r="D4">
-        <v>0.1112598377778866</v>
+        <v>0.1115805822686937</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.4835120749917508</v>
+        <v>0.470329639464758</v>
       </c>
       <c r="G4">
-        <v>0.2594675949224197</v>
+        <v>0.2328809699521983</v>
       </c>
       <c r="H4">
-        <v>0.002971424487611118</v>
+        <v>0.002444537696972171</v>
       </c>
       <c r="I4">
-        <v>0.002183449044675712</v>
+        <v>0.001609641258002004</v>
       </c>
       <c r="J4">
-        <v>0.260753546375895</v>
+        <v>0.2857917240306662</v>
       </c>
       <c r="K4">
-        <v>0.2583113412643652</v>
+        <v>0.2434424164685574</v>
       </c>
       <c r="L4">
-        <v>0.08520416112770723</v>
+        <v>0.1313749628112078</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.06162649002843512</v>
       </c>
       <c r="N4">
-        <v>0.3372306166293981</v>
+        <v>0.08275319788351343</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.3452917488760789</v>
       </c>
       <c r="Q4">
-        <v>1.043926670895445</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.008485063285633</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.583201809819457</v>
+        <v>2.588181952320099</v>
       </c>
       <c r="C5">
-        <v>0.4646959910350859</v>
+        <v>0.4545233428979145</v>
       </c>
       <c r="D5">
-        <v>0.1091007680175125</v>
+        <v>0.1094470984821285</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.4805463312652307</v>
+        <v>0.4677920886537166</v>
       </c>
       <c r="G5">
-        <v>0.257683663623439</v>
+        <v>0.2316150206827459</v>
       </c>
       <c r="H5">
-        <v>0.003346140892838689</v>
+        <v>0.002764454121544579</v>
       </c>
       <c r="I5">
-        <v>0.002545633984730067</v>
+        <v>0.001906663169768841</v>
       </c>
       <c r="J5">
-        <v>0.2611550307254262</v>
+        <v>0.2857131444542418</v>
       </c>
       <c r="K5">
-        <v>0.2610799168403499</v>
+        <v>0.2461485833688783</v>
       </c>
       <c r="L5">
-        <v>0.08479328333331981</v>
+        <v>0.1328846879404253</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.06280681377507191</v>
       </c>
       <c r="N5">
-        <v>0.3258996839603299</v>
+        <v>0.08239001889105557</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.3336258354427031</v>
       </c>
       <c r="Q5">
-        <v>1.040905048343959</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.006385853272405</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.56503166073162</v>
+        <v>2.570003833891747</v>
       </c>
       <c r="C6">
-        <v>0.4635415147044171</v>
+        <v>0.4530976562759008</v>
       </c>
       <c r="D6">
-        <v>0.1087550963914552</v>
+        <v>0.1091056725247483</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.4795409677377052</v>
+        <v>0.466870359690148</v>
       </c>
       <c r="G6">
-        <v>0.2569749416417437</v>
+        <v>0.2310105906942255</v>
       </c>
       <c r="H6">
-        <v>0.003413138877771005</v>
+        <v>0.00282182167125461</v>
       </c>
       <c r="I6">
-        <v>0.00270483016186418</v>
+        <v>0.002071308675684058</v>
       </c>
       <c r="J6">
-        <v>0.261004359571082</v>
+        <v>0.2854778138724967</v>
       </c>
       <c r="K6">
-        <v>0.2612883084288029</v>
+        <v>0.2463602150230901</v>
       </c>
       <c r="L6">
-        <v>0.0846891608263669</v>
+        <v>0.1329921416787112</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.0629737248345883</v>
       </c>
       <c r="N6">
-        <v>0.324293072389537</v>
+        <v>0.0822961156871167</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.3319609670841999</v>
       </c>
       <c r="Q6">
-        <v>1.039073422209199</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.004743330586194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.690965285044285</v>
+        <v>2.69595091813585</v>
       </c>
       <c r="C7">
-        <v>0.4791895921904654</v>
+        <v>0.4702720994920355</v>
       </c>
       <c r="D7">
-        <v>0.1112647594383063</v>
+        <v>0.1117317555645343</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.482050533978196</v>
+        <v>0.4681887454920357</v>
       </c>
       <c r="G7">
-        <v>0.2583002309616376</v>
+        <v>0.233859583755553</v>
       </c>
       <c r="H7">
-        <v>0.00298157262232851</v>
+        <v>0.002456422656812507</v>
       </c>
       <c r="I7">
-        <v>0.002435526823160394</v>
+        <v>0.001906345209563121</v>
       </c>
       <c r="J7">
-        <v>0.2601544518682175</v>
+        <v>0.2819235306979095</v>
       </c>
       <c r="K7">
-        <v>0.2576498503273985</v>
+        <v>0.2425964313203295</v>
       </c>
       <c r="L7">
-        <v>0.08510314442463729</v>
+        <v>0.1308752857334916</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.06149285339717725</v>
       </c>
       <c r="N7">
-        <v>0.3378276366318573</v>
+        <v>0.08263999392158405</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.3458788657522689</v>
       </c>
       <c r="Q7">
-        <v>1.040195901875023</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.002794059270343</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.245373806890314</v>
+        <v>3.250270308580582</v>
       </c>
       <c r="C8">
-        <v>0.5462954966639302</v>
+        <v>0.545285624045448</v>
       </c>
       <c r="D8">
-        <v>0.1223716157348136</v>
+        <v>0.1230650240133784</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.4956776698423511</v>
+        <v>0.4778049851530213</v>
       </c>
       <c r="G8">
-        <v>0.2661817266174822</v>
+        <v>0.2440915068857024</v>
       </c>
       <c r="H8">
-        <v>0.001469195512373012</v>
+        <v>0.001178708478831947</v>
       </c>
       <c r="I8">
-        <v>0.00141134801209386</v>
+        <v>0.001231203427168204</v>
       </c>
       <c r="J8">
-        <v>0.257638216709708</v>
+        <v>0.2741928061084096</v>
       </c>
       <c r="K8">
-        <v>0.2430999638180147</v>
+        <v>0.2278175681199546</v>
       </c>
       <c r="L8">
-        <v>0.08693308660548782</v>
+        <v>0.1228105138684636</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.05618853967749438</v>
       </c>
       <c r="N8">
-        <v>0.3969713734065721</v>
+        <v>0.08420558739532069</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.4068078272072455</v>
       </c>
       <c r="Q8">
-        <v>1.052026873037434</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.004666762704744</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.328639641925236</v>
+        <v>4.33257395462573</v>
       </c>
       <c r="C9">
-        <v>0.675038610922968</v>
+        <v>0.6921695485453085</v>
       </c>
       <c r="D9">
-        <v>0.144358881068726</v>
+        <v>0.1450055315158778</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5295928472852935</v>
+        <v>0.5054417180269724</v>
       </c>
       <c r="G9">
-        <v>0.2874212861406136</v>
+        <v>0.2621216517665133</v>
       </c>
       <c r="H9">
-        <v>7.252670221258306E-05</v>
+        <v>4.02909231491666E-05</v>
       </c>
       <c r="I9">
-        <v>0.0006736498299675375</v>
+        <v>0.000855309204941257</v>
       </c>
       <c r="J9">
-        <v>0.2562877050377992</v>
+        <v>0.2726014075668601</v>
       </c>
       <c r="K9">
-        <v>0.2189892834247278</v>
+        <v>0.2034264497627234</v>
       </c>
       <c r="L9">
-        <v>0.09037994794019433</v>
+        <v>0.1099973066219064</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.05027778987928144</v>
       </c>
       <c r="N9">
-        <v>0.5122814768011068</v>
+        <v>0.08720719811086441</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.5259297272236694</v>
       </c>
       <c r="Q9">
-        <v>1.094931289307951</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.032562548781044</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.122657303920164</v>
+        <v>5.125036853369238</v>
       </c>
       <c r="C10">
-        <v>0.7786600496831397</v>
+        <v>0.8065497605143719</v>
       </c>
       <c r="D10">
-        <v>0.1579995945734396</v>
+        <v>0.1594843013575939</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.548572878301357</v>
+        <v>0.5159680528406696</v>
       </c>
       <c r="G10">
-        <v>0.2998798654675383</v>
+        <v>0.2854622360080228</v>
       </c>
       <c r="H10">
-        <v>0.0003085378252252191</v>
+        <v>0.0003261430625234318</v>
       </c>
       <c r="I10">
-        <v>0.001400336633185617</v>
+        <v>0.001688419571089561</v>
       </c>
       <c r="J10">
-        <v>0.2540184825033762</v>
+        <v>0.2526743445758726</v>
       </c>
       <c r="K10">
-        <v>0.2006081828950599</v>
+        <v>0.1839600388503175</v>
       </c>
       <c r="L10">
-        <v>0.09179782874239795</v>
+        <v>0.1006457805330294</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.0471227638850209</v>
       </c>
       <c r="N10">
-        <v>0.5828882083460769</v>
+        <v>0.08844993862420814</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.5989943139192491</v>
       </c>
       <c r="Q10">
-        <v>1.117069877863784</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.032390324821193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.480640595541615</v>
+        <v>5.482093850825038</v>
       </c>
       <c r="C11">
-        <v>0.8908705003494504</v>
+        <v>0.9111522187250216</v>
       </c>
       <c r="D11">
-        <v>0.1413518905056748</v>
+        <v>0.1442494137038182</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.4847135265553533</v>
+        <v>0.449640833258357</v>
       </c>
       <c r="G11">
-        <v>0.2605198525193373</v>
+        <v>0.2761289148665043</v>
       </c>
       <c r="H11">
-        <v>0.01888862353213838</v>
+        <v>0.0188912863269266</v>
       </c>
       <c r="I11">
-        <v>0.002231061923001043</v>
+        <v>0.002598287572016744</v>
       </c>
       <c r="J11">
-        <v>0.2299255896560908</v>
+        <v>0.2043224905358585</v>
       </c>
       <c r="K11">
-        <v>0.1726716683063625</v>
+        <v>0.1590219634640579</v>
       </c>
       <c r="L11">
-        <v>0.09266034747664875</v>
+        <v>0.09164717506140541</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.03863689658528813</v>
       </c>
       <c r="N11">
-        <v>0.4908490647422781</v>
+        <v>0.0908158671290682</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.5037384627179478</v>
       </c>
       <c r="Q11">
-        <v>0.9833721671691364</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0.8903086567568721</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.615086816282712</v>
+        <v>5.616235659062795</v>
       </c>
       <c r="C12">
-        <v>0.9638504559713965</v>
+        <v>0.9756610805531238</v>
       </c>
       <c r="D12">
-        <v>0.1253497841008482</v>
+        <v>0.1285751729513578</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.4315159892545353</v>
+        <v>0.3988155658217494</v>
       </c>
       <c r="G12">
-        <v>0.2280108014078408</v>
+        <v>0.2568897795510523</v>
       </c>
       <c r="H12">
-        <v>0.05752700334259941</v>
+        <v>0.05752506981630034</v>
       </c>
       <c r="I12">
-        <v>0.002311207693561634</v>
+        <v>0.002663900973161937</v>
       </c>
       <c r="J12">
-        <v>0.2116062204615901</v>
+        <v>0.1826519433516047</v>
       </c>
       <c r="K12">
-        <v>0.1567674613594576</v>
+        <v>0.1463434062743918</v>
       </c>
       <c r="L12">
-        <v>0.1040262579202569</v>
+        <v>0.08780720402120057</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.03342042913487564</v>
       </c>
       <c r="N12">
-        <v>0.4047674206870369</v>
+        <v>0.1031088715553494</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.4147402631612778</v>
       </c>
       <c r="Q12">
-        <v>0.8761616180886591</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.7884237044283111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.583896760037817</v>
+        <v>5.585309571834102</v>
       </c>
       <c r="C13">
-        <v>1.013917695060883</v>
+        <v>1.017638480191692</v>
       </c>
       <c r="D13">
-        <v>0.1090415571528993</v>
+        <v>0.1116088267653552</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.3811288102618775</v>
+        <v>0.3554393758364824</v>
       </c>
       <c r="G13">
-        <v>0.1969641169039562</v>
+        <v>0.2227639193293811</v>
       </c>
       <c r="H13">
-        <v>0.1131958936589257</v>
+        <v>0.1131969834504218</v>
       </c>
       <c r="I13">
-        <v>0.00213571328074913</v>
+        <v>0.002489337040286088</v>
       </c>
       <c r="J13">
-        <v>0.1956251294293381</v>
+        <v>0.1766799053653898</v>
       </c>
       <c r="K13">
-        <v>0.1478595411465751</v>
+        <v>0.1407288362114225</v>
       </c>
       <c r="L13">
-        <v>0.1236151130484764</v>
+        <v>0.08646524068283123</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.03027674880051645</v>
       </c>
       <c r="N13">
-        <v>0.3199678729197188</v>
+        <v>0.1231616916894538</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.3271540997074709</v>
       </c>
       <c r="Q13">
-        <v>0.7768535685392379</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.7076063643474129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.486959633986146</v>
+        <v>5.488793187462022</v>
       </c>
       <c r="C14">
-        <v>1.039544569340705</v>
+        <v>1.03774424190604</v>
       </c>
       <c r="D14">
-        <v>0.09773067965405602</v>
+        <v>0.09952158886115114</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.3474416359729133</v>
+        <v>0.3281272721903363</v>
       </c>
       <c r="G14">
-        <v>0.1760294345887417</v>
+        <v>0.1937216384779958</v>
       </c>
       <c r="H14">
-        <v>0.1624777743861614</v>
+        <v>0.1624807963741404</v>
       </c>
       <c r="I14">
-        <v>0.001991359096749967</v>
+        <v>0.002364143907329641</v>
       </c>
       <c r="J14">
-        <v>0.1855255281650656</v>
+        <v>0.177677386037594</v>
       </c>
       <c r="K14">
-        <v>0.1450612983178265</v>
+        <v>0.1398384225130537</v>
       </c>
       <c r="L14">
-        <v>0.1422817897765256</v>
+        <v>0.086406655354895</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.02915340413059209</v>
       </c>
       <c r="N14">
-        <v>0.2629497591235861</v>
+        <v>0.1418345550929132</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.2683452231549524</v>
       </c>
       <c r="Q14">
-        <v>0.7112627005567305</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.6592240050428302</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.427988609599538</v>
+        <v>5.430034358649493</v>
       </c>
       <c r="C15">
-        <v>1.041441625575828</v>
+        <v>1.038466653031776</v>
       </c>
       <c r="D15">
-        <v>0.09481722439919338</v>
+        <v>0.0962923564421132</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.3391622102911853</v>
+        <v>0.3220960076651807</v>
       </c>
       <c r="G15">
-        <v>0.1707444681720389</v>
+        <v>0.1841419705868077</v>
       </c>
       <c r="H15">
-        <v>0.1749596476291231</v>
+        <v>0.1749624583877107</v>
       </c>
       <c r="I15">
-        <v>0.002020413232849627</v>
+        <v>0.002421123454245944</v>
       </c>
       <c r="J15">
-        <v>0.1833211667106482</v>
+        <v>0.1800977422763097</v>
       </c>
       <c r="K15">
-        <v>0.1454097888562047</v>
+        <v>0.1405705185795734</v>
       </c>
       <c r="L15">
-        <v>0.1471884273885706</v>
+        <v>0.08662769206539211</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.02920759536813256</v>
       </c>
       <c r="N15">
-        <v>0.2486634360618325</v>
+        <v>0.1466816693371413</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.2536225666904812</v>
       </c>
       <c r="Q15">
-        <v>0.6954068356067893</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.6495563077865825</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.091530258480816</v>
+        <v>5.094554720119504</v>
       </c>
       <c r="C16">
-        <v>0.98604981205591</v>
+        <v>0.9845884174833941</v>
       </c>
       <c r="D16">
-        <v>0.09265540540064876</v>
+        <v>0.09302475316644632</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.3405831279479372</v>
+        <v>0.3297287468243084</v>
       </c>
       <c r="G16">
-        <v>0.1709195206519283</v>
+        <v>0.1653608363525478</v>
       </c>
       <c r="H16">
-        <v>0.1621073964432185</v>
+        <v>0.1620941567441747</v>
       </c>
       <c r="I16">
-        <v>0.001780641127798077</v>
+        <v>0.002201581179841483</v>
       </c>
       <c r="J16">
-        <v>0.1869885647031353</v>
+        <v>0.2025000957792571</v>
       </c>
       <c r="K16">
-        <v>0.1540537277472855</v>
+        <v>0.1489178458172857</v>
       </c>
       <c r="L16">
-        <v>0.1418261259686844</v>
+        <v>0.08880837334247382</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.03198611897017756</v>
       </c>
       <c r="N16">
-        <v>0.2382873255887148</v>
+        <v>0.1411139284751073</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.2429862103953155</v>
       </c>
       <c r="Q16">
-        <v>0.7032565395718962</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.674995117980302</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.885609193349353</v>
+        <v>4.88908760194272</v>
       </c>
       <c r="C17">
-        <v>0.9301756782449786</v>
+        <v>0.9319802310108685</v>
       </c>
       <c r="D17">
-        <v>0.09685561276393173</v>
+        <v>0.09684365774731418</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.3592979931705287</v>
+        <v>0.3495935476931749</v>
       </c>
       <c r="G17">
-        <v>0.1820407097775814</v>
+        <v>0.1679064938356944</v>
       </c>
       <c r="H17">
-        <v>0.1242973334860125</v>
+        <v>0.1242647004780224</v>
       </c>
       <c r="I17">
-        <v>0.001722624729634248</v>
+        <v>0.002143161405132155</v>
       </c>
       <c r="J17">
-        <v>0.195144390080408</v>
+        <v>0.219195150042502</v>
       </c>
       <c r="K17">
-        <v>0.1620550308240274</v>
+        <v>0.1560785310447161</v>
       </c>
       <c r="L17">
-        <v>0.1269966272772791</v>
+        <v>0.09099469329662702</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.03454567524028684</v>
       </c>
       <c r="N17">
-        <v>0.2595408714527139</v>
+        <v>0.1262217935622374</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.2649036332113326</v>
       </c>
       <c r="Q17">
-        <v>0.7437901311816688</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.7191190088080219</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.768023572367269</v>
+        <v>4.771671871267301</v>
       </c>
       <c r="C18">
-        <v>0.8666555801514164</v>
+        <v>0.8742756406366539</v>
       </c>
       <c r="D18">
-        <v>0.1075485258993751</v>
+        <v>0.1074592468337556</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.3973405384666435</v>
+        <v>0.3856010112740336</v>
       </c>
       <c r="G18">
-        <v>0.2054272788778988</v>
+        <v>0.1856661166321345</v>
       </c>
       <c r="H18">
-        <v>0.07147548382760505</v>
+        <v>0.07143572159711908</v>
       </c>
       <c r="I18">
-        <v>0.001474550695105492</v>
+        <v>0.001843736512624261</v>
       </c>
       <c r="J18">
-        <v>0.2088242514133754</v>
+        <v>0.2358210589309664</v>
       </c>
       <c r="K18">
-        <v>0.1720097452650178</v>
+        <v>0.1644790216502603</v>
       </c>
       <c r="L18">
-        <v>0.1073090423601251</v>
+        <v>0.09401181423288563</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.0375920897428772</v>
       </c>
       <c r="N18">
-        <v>0.3141747715035308</v>
+        <v>0.1063944641633725</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.321241452297059</v>
       </c>
       <c r="Q18">
-        <v>0.8219512963227942</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.7922578128801376</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.729531351510616</v>
+        <v>4.733136452277733</v>
       </c>
       <c r="C19">
-        <v>0.8092756287199165</v>
+        <v>0.8242069927340197</v>
       </c>
       <c r="D19">
-        <v>0.1236722298110848</v>
+        <v>0.1236798942826809</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.4486011964201921</v>
+        <v>0.432520763025309</v>
       </c>
       <c r="G19">
-        <v>0.2368862234942952</v>
+        <v>0.2125259994629616</v>
       </c>
       <c r="H19">
-        <v>0.02623433906349248</v>
+        <v>0.02620657278352212</v>
       </c>
       <c r="I19">
-        <v>0.00160672517770255</v>
+        <v>0.002005155017401172</v>
       </c>
       <c r="J19">
-        <v>0.2257323088065064</v>
+        <v>0.2522107871450743</v>
       </c>
       <c r="K19">
-        <v>0.1843291130486868</v>
+        <v>0.1744021935397955</v>
       </c>
       <c r="L19">
-        <v>0.09285421318476494</v>
+        <v>0.09781898915265508</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.04126602235415344</v>
       </c>
       <c r="N19">
-        <v>0.399501659203338</v>
+        <v>0.09140598628777319</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.409289572426232</v>
       </c>
       <c r="Q19">
-        <v>0.924037953567165</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0.8832552066565995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.914047493973271</v>
+        <v>4.91699623560055</v>
       </c>
       <c r="C20">
-        <v>0.7595003982520723</v>
+        <v>0.7862105720342925</v>
       </c>
       <c r="D20">
-        <v>0.154401314165753</v>
+        <v>0.1551197570139493</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.5386715324390465</v>
+        <v>0.5111255862610165</v>
       </c>
       <c r="G20">
-        <v>0.2927062146707016</v>
+        <v>0.2678242642455189</v>
       </c>
       <c r="H20">
-        <v>0.0001516440919737683</v>
+        <v>0.0001672706077782138</v>
       </c>
       <c r="I20">
-        <v>0.001883664847118993</v>
+        <v>0.002320684024567754</v>
       </c>
       <c r="J20">
-        <v>0.2525608789227007</v>
+        <v>0.2664600459902289</v>
       </c>
       <c r="K20">
-        <v>0.2031743164553408</v>
+        <v>0.1878150851371885</v>
       </c>
       <c r="L20">
-        <v>0.09114078387146929</v>
+        <v>0.1025697253532041</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.04736855696111242</v>
       </c>
       <c r="N20">
-        <v>0.5660540707549444</v>
+        <v>0.08793621959784703</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.5814611475752116</v>
       </c>
       <c r="Q20">
-        <v>1.098686622755338</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.028032770882703</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.523651990078861</v>
+        <v>5.524526386083892</v>
       </c>
       <c r="C21">
-        <v>0.8276619335933049</v>
+        <v>0.8560141093675497</v>
       </c>
       <c r="D21">
-        <v>0.1691443049376886</v>
+        <v>0.1735393617582019</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.5683920108470488</v>
+        <v>0.5192709823450272</v>
       </c>
       <c r="G21">
-        <v>0.3120778183566841</v>
+        <v>0.3382400522547613</v>
       </c>
       <c r="H21">
-        <v>0.0004898799593053837</v>
+        <v>0.0004780844501882653</v>
       </c>
       <c r="I21">
-        <v>0.002711749253206719</v>
+        <v>0.003101712835388959</v>
       </c>
       <c r="J21">
-        <v>0.2559464803865197</v>
+        <v>0.2084916576450482</v>
       </c>
       <c r="K21">
-        <v>0.194120685707011</v>
+        <v>0.1733493210198329</v>
       </c>
       <c r="L21">
-        <v>0.09362495948031757</v>
+        <v>0.09601105164744528</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.04545938916256276</v>
       </c>
       <c r="N21">
-        <v>0.6433595895984041</v>
+        <v>0.08967572681788294</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.6615806901281758</v>
       </c>
       <c r="Q21">
-        <v>1.147202544265156</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.01694886576702</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.922040499882485</v>
+        <v>5.921329925380121</v>
       </c>
       <c r="C22">
-        <v>0.8725992269932306</v>
+        <v>0.9009143095161392</v>
       </c>
       <c r="D22">
-        <v>0.1773915892737392</v>
+        <v>0.1845376632819438</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.5860287141557308</v>
+        <v>0.5218040151294474</v>
       </c>
       <c r="G22">
-        <v>0.3241327409107413</v>
+        <v>0.3914567179341617</v>
       </c>
       <c r="H22">
-        <v>0.001029009156403693</v>
+        <v>0.000952970983539192</v>
       </c>
       <c r="I22">
-        <v>0.003208180151180962</v>
+        <v>0.003442705968044635</v>
       </c>
       <c r="J22">
-        <v>0.2579110302582848</v>
+        <v>0.1774111032854471</v>
       </c>
       <c r="K22">
-        <v>0.1882234570330557</v>
+        <v>0.1637827830982648</v>
       </c>
       <c r="L22">
-        <v>0.09487648272969373</v>
+        <v>0.09195216901423109</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.04433723149603352</v>
       </c>
       <c r="N22">
-        <v>0.6853664306445069</v>
+        <v>0.09054029094472282</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.7052027647750236</v>
       </c>
       <c r="Q22">
-        <v>1.177099114385072</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.005103180520621</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.709474762891887</v>
+        <v>5.70970093678136</v>
       </c>
       <c r="C23">
-        <v>0.8455948604961634</v>
+        <v>0.8749946097644852</v>
       </c>
       <c r="D23">
-        <v>0.172942777108716</v>
+        <v>0.1781822593935942</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.5781889472089077</v>
+        <v>0.5238010701184592</v>
       </c>
       <c r="G23">
-        <v>0.3189619551644611</v>
+        <v>0.3574468200816909</v>
       </c>
       <c r="H23">
-        <v>0.0007198119847511286</v>
+        <v>0.0006847770475878479</v>
       </c>
       <c r="I23">
-        <v>0.002630033400856213</v>
+        <v>0.00289431132114526</v>
       </c>
       <c r="J23">
-        <v>0.2575147708574121</v>
+        <v>0.1982525367582113</v>
       </c>
       <c r="K23">
-        <v>0.1920803529849326</v>
+        <v>0.169931624450717</v>
       </c>
       <c r="L23">
-        <v>0.09430960037400826</v>
+        <v>0.09440306026256184</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.04540432432609443</v>
       </c>
       <c r="N23">
-        <v>0.6620206361001095</v>
+        <v>0.09019505094599412</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.6809866585925732</v>
       </c>
       <c r="Q23">
-        <v>1.165186797357819</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.020399694976845</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.904465896625254</v>
+        <v>4.907418560033875</v>
       </c>
       <c r="C24">
-        <v>0.7485944030412668</v>
+        <v>0.7757630336177783</v>
       </c>
       <c r="D24">
-        <v>0.1562592891871901</v>
+        <v>0.1569732992104491</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.5474034909440277</v>
+        <v>0.5192550669375109</v>
       </c>
       <c r="G24">
-        <v>0.2985657062606464</v>
+        <v>0.2727370310461552</v>
       </c>
       <c r="H24">
-        <v>4.184435345933046E-05</v>
+        <v>5.917265470967159E-05</v>
       </c>
       <c r="I24">
-        <v>0.001409123884494434</v>
+        <v>0.001746671480376882</v>
       </c>
       <c r="J24">
-        <v>0.2556856519411994</v>
+        <v>0.2697773097309835</v>
       </c>
       <c r="K24">
-        <v>0.2064547748853141</v>
+        <v>0.1905574238711445</v>
       </c>
       <c r="L24">
-        <v>0.09195788479893707</v>
+        <v>0.103594966215824</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.04839922853900624</v>
       </c>
       <c r="N24">
-        <v>0.5753766202746391</v>
+        <v>0.08856892459179067</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.59116234114299</v>
       </c>
       <c r="Q24">
-        <v>1.117647530505124</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.045417450665738</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.035824809113365</v>
+        <v>4.040164543393587</v>
       </c>
       <c r="C25">
-        <v>0.6445052227233816</v>
+        <v>0.657290976049552</v>
       </c>
       <c r="D25">
-        <v>0.138441753832339</v>
+        <v>0.1388830640645295</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.5173410918946786</v>
+        <v>0.4961312351121663</v>
       </c>
       <c r="G25">
-        <v>0.2791923739747446</v>
+        <v>0.2518265337832659</v>
       </c>
       <c r="H25">
-        <v>0.0002698424212267403</v>
+        <v>0.0001886940196093034</v>
       </c>
       <c r="I25">
-        <v>0.001100201252054234</v>
+        <v>0.001296177954550615</v>
       </c>
       <c r="J25">
-        <v>0.2552981525830589</v>
+        <v>0.2763125068057093</v>
       </c>
       <c r="K25">
-        <v>0.2239476721684728</v>
+        <v>0.208953187436455</v>
       </c>
       <c r="L25">
-        <v>0.08931891466833086</v>
+        <v>0.1129223533545272</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.05117782746112365</v>
       </c>
       <c r="N25">
-        <v>0.4823702254708166</v>
+        <v>0.08630874599986171</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.4949412987387234</v>
       </c>
       <c r="Q25">
-        <v>1.075229908864813</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.02051353453821</v>
       </c>
     </row>
   </sheetData>
